--- a/Processes/Finance/Budgeting/Sales Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/Sales Budget Template.xlsx
@@ -1,48 +1,581 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Customers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+  <si>
+    <t>B 2022</t>
+  </si>
+  <si>
+    <t>FC 2022</t>
+  </si>
+  <si>
+    <t>Diff PY</t>
+  </si>
+  <si>
+    <t>Diff B</t>
+  </si>
+  <si>
+    <t>Diff FC</t>
+  </si>
+  <si>
+    <t>Segment 1</t>
+  </si>
+  <si>
+    <t>Sub segment 101</t>
+  </si>
+  <si>
+    <t>Sub segment 102</t>
+  </si>
+  <si>
+    <t>Sub segment 103</t>
+  </si>
+  <si>
+    <t>Sub segment 104</t>
+  </si>
+  <si>
+    <t>Sub segment 105</t>
+  </si>
+  <si>
+    <t>Segment 2</t>
+  </si>
+  <si>
+    <t>Segment 3</t>
+  </si>
+  <si>
+    <t>Sub segment 106</t>
+  </si>
+  <si>
+    <t>Segment 4</t>
+  </si>
+  <si>
+    <t>Sub segment 107</t>
+  </si>
+  <si>
+    <t>Segment 5</t>
+  </si>
+  <si>
+    <t>Sub segment 108</t>
+  </si>
+  <si>
+    <t>Sub segment 109</t>
+  </si>
+  <si>
+    <t>Sub segment 110</t>
+  </si>
+  <si>
+    <t>Sub segment 111</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Customer count</t>
+  </si>
+  <si>
+    <t>Sales per customer</t>
+  </si>
+  <si>
+    <t>Customer Group</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Name 1</t>
+  </si>
+  <si>
+    <t>Name 2</t>
+  </si>
+  <si>
+    <t>Name 3</t>
+  </si>
+  <si>
+    <t>Name 4</t>
+  </si>
+  <si>
+    <t>Name 5</t>
+  </si>
+  <si>
+    <t>Name 6</t>
+  </si>
+  <si>
+    <t>Name 7</t>
+  </si>
+  <si>
+    <t>Name 8</t>
+  </si>
+  <si>
+    <t>Name 9</t>
+  </si>
+  <si>
+    <t>Name 10</t>
+  </si>
+  <si>
+    <t>Name 11</t>
+  </si>
+  <si>
+    <t>Name 12</t>
+  </si>
+  <si>
+    <t>Name 13</t>
+  </si>
+  <si>
+    <t>Name 14</t>
+  </si>
+  <si>
+    <t>Name 15</t>
+  </si>
+  <si>
+    <t>Name 16</t>
+  </si>
+  <si>
+    <t>Name 17</t>
+  </si>
+  <si>
+    <t>Name 18</t>
+  </si>
+  <si>
+    <t>Name 19</t>
+  </si>
+  <si>
+    <t>Name 20</t>
+  </si>
+  <si>
+    <t>Name 21</t>
+  </si>
+  <si>
+    <t>Name 22</t>
+  </si>
+  <si>
+    <t>Name 23</t>
+  </si>
+  <si>
+    <t>Name 24</t>
+  </si>
+  <si>
+    <t>Name 25</t>
+  </si>
+  <si>
+    <t>Name 26</t>
+  </si>
+  <si>
+    <t>Name 27</t>
+  </si>
+  <si>
+    <t>Name 28</t>
+  </si>
+  <si>
+    <t>Name 29</t>
+  </si>
+  <si>
+    <t>Name 30</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Minor Customers</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>New Customers</t>
+  </si>
+  <si>
+    <t>Total Customers</t>
+  </si>
+  <si>
+    <t>Majour count</t>
+  </si>
+  <si>
+    <t>Minor count</t>
+  </si>
+  <si>
+    <t>New count</t>
+  </si>
+  <si>
+    <t>Total count</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,9 +583,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -61,10 +836,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1177,725 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="4:19">
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>2024</v>
+      </c>
+      <c r="S1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:AC45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="5" max="9" width="5.42857142857143" customWidth="1"/>
+    <col min="28" max="29" width="5.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:29">
+      <c r="E3">
+        <v>2017</v>
+      </c>
+      <c r="F3">
+        <v>2018</v>
+      </c>
+      <c r="G3">
+        <v>2019</v>
+      </c>
+      <c r="H3">
+        <v>2020</v>
+      </c>
+      <c r="I3">
+        <v>2021</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2023</v>
+      </c>
+      <c r="AB3">
+        <v>2024</v>
+      </c>
+      <c r="AC3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>100001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>100002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>100003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>100004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>100005</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>100006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100007</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>100008</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>100009</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>100010</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>100011</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>100012</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>100013</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>100014</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>100015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>100016</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>100017</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>100018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>100019</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>100020</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>100021</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>100022</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>100023</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>100024</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>100025</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>100026</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>100027</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>100028</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>100029</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>100030</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40">
+        <f>+SUM(E5:E39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <f>+COUNTIF(E5:E35,"&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <f>+SUM(E42:E44)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Processes/Finance/Budgeting/Sales Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/Sales Budget Template.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eichhornd\Desktop\Projekte\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C274AC4D-12CD-457D-8FC6-F1309888E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+  <si>
+    <t>Sales budget</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>VJ</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>in TEUR</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Δ %</t>
+  </si>
   <si>
     <t>Segment 1</t>
   </si>
@@ -59,21 +61,6 @@
     <t>Segment 2</t>
   </si>
   <si>
-    <t>Segment 3</t>
-  </si>
-  <si>
-    <t>Segment 4</t>
-  </si>
-  <si>
-    <t>Segment 5</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Sales per customer</t>
-  </si>
-  <si>
     <t>Sub segment 201</t>
   </si>
   <si>
@@ -84,6 +71,9 @@
   </si>
   <si>
     <t>Sub segment 204</t>
+  </si>
+  <si>
+    <t>Segment 3</t>
   </si>
   <si>
     <t>Sub segment 301</t>
@@ -98,6 +88,9 @@
     <t>Sub segment 304</t>
   </si>
   <si>
+    <t>Segment 4</t>
+  </si>
+  <si>
     <t>Sub segment 401</t>
   </si>
   <si>
@@ -108,6 +101,9 @@
   </si>
   <si>
     <t>Sub segment 404</t>
+  </si>
+  <si>
+    <t>Segment 5</t>
   </si>
   <si>
     <t>Sub segment 501</t>
@@ -131,45 +127,65 @@
     <t>Sub segment 507</t>
   </si>
   <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>VJ</t>
-  </si>
-  <si>
-    <t>Δ %</t>
-  </si>
-  <si>
-    <t>in TEUR</t>
-  </si>
-  <si>
-    <t>New customers</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Customer count</t>
   </si>
   <si>
-    <t>Sales budget</t>
+    <t>Sales per customer</t>
+  </si>
+  <si>
+    <t>New customers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,39 +195,142 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,18 +339,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,118 +548,396 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -377,6 +960,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -385,26 +969,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -439,6 +1003,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -446,7 +1013,7 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>VJ</c:v>
+                    <c:v>PY</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>PY</c:v>
@@ -541,11 +1108,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B1C-4FDA-98E2-121BC8AFB0C2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -573,6 +1135,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -580,7 +1145,7 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>VJ</c:v>
+                    <c:v>PY</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>PY</c:v>
@@ -675,11 +1240,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B1C-4FDA-98E2-121BC8AFB0C2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -707,6 +1267,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -714,7 +1277,7 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>VJ</c:v>
+                    <c:v>PY</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>PY</c:v>
@@ -809,11 +1372,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B1C-4FDA-98E2-121BC8AFB0C2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -841,6 +1399,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -848,7 +1409,7 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>VJ</c:v>
+                    <c:v>PY</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>PY</c:v>
@@ -943,11 +1504,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7B1C-4FDA-98E2-121BC8AFB0C2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -975,6 +1531,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -982,7 +1541,7 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>VJ</c:v>
+                    <c:v>PY</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>PY</c:v>
@@ -1077,11 +1636,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7B1C-4FDA-98E2-121BC8AFB0C2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1145,6 +1699,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>(Overview!$D$42:$G$42,Overview!$J$42,Overview!$N$42,Overview!$Q$42:$S$42)</c:f>
@@ -1182,11 +1739,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7B1C-4FDA-98E2-121BC8AFB0C2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1230,7 +1782,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1242,7 +1794,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1178865240"/>
@@ -1285,6 +1836,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1293,26 +1845,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1330,7 +1862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1342,13 +1874,48 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1178864912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="1093354912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852939816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="852939816"/>
         <c:scaling>
@@ -1372,7 +1939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1384,29 +1951,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1093354912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="1093354912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="852939816"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1417,6 +1967,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1430,7 +1981,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1442,19 +1993,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1477,14 +2020,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2002,7 +2544,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2016,20 +2558,14 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF962067-219B-B8F3-33C0-8D0E0623B41F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2076450" y="7374890"/>
+        <a:ext cx="9353550" cy="3364865"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2040,69 +2576,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Settings"/>
-      <sheetName val="PL-tc"/>
-      <sheetName val="PL-tc-m"/>
-      <sheetName val="PC-tc"/>
-      <sheetName val="Balance"/>
-      <sheetName val="Sales"/>
-      <sheetName val="CF"/>
-      <sheetName val="HR"/>
-      <sheetName val="FinanceKPI"/>
-      <sheetName val="Investments"/>
-      <sheetName val="Assets"/>
-      <sheetName val="pl-data"/>
-      <sheetName val="b-data"/>
-      <sheetName val="s-data"/>
-      <sheetName val="l-data"/>
-      <sheetName val="i-data"/>
-      <sheetName val="postings"/>
-      <sheetName val="hr-data"/>
-      <sheetName val="pc-dist"/>
-      <sheetName val="helper"/>
-      <sheetName val="dict"/>
-      <sheetName val="masterfile"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1662">
-          <cell r="C1662" t="str">
-            <v>VJ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2386,3713 +2859,3713 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:S834"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" style="11" customWidth="1"/>
-    <col min="4" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="1.5703125" style="11" customWidth="1"/>
-    <col min="9" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="1.5703125" style="11" customWidth="1"/>
-    <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="1.5703125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="9" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
         <v>2018</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <f>+D2+1</f>
         <v>2019</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <f>+E2+1</f>
         <v>2020</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <f>+F2+1</f>
         <v>2021</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="1">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5">
         <f>+G2+1</f>
         <v>2022</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="5">
         <f>+I2</f>
         <v>2022</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="1">
+      <c r="K2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5">
         <f>+J2+1</f>
         <v>2023</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="1">
+      <c r="O2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5">
         <f>+N2+1</f>
         <v>2024</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="5">
         <f>+Q2+1</f>
         <v>2025</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="5">
         <f>+R2+1</f>
         <v>2026</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>+[1]dict!$C$1662</f>
-        <v>VJ</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="C4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <f>+SUM(D6:D11)</f>
         <v>100</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="11">
         <f t="shared" ref="E5:G5" si="0">+SUM(E6:E11)</f>
         <v>200</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="19">
+      <c r="H5" s="10"/>
+      <c r="I5" s="11">
         <f t="shared" ref="I5:J5" si="1">+SUM(I6:I11)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" s="19" t="str">
         <f>IFERROR(J5/I5-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L5" s="16" t="str">
+      <c r="L5" s="19" t="str">
         <f>IFERROR(J5/G5-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="19">
+      <c r="M5" s="10"/>
+      <c r="N5" s="11">
         <f>+SUM(N6:N11)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="19">
         <f>IFERROR(N5/J5-1,"n/a")</f>
         <v>-1</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="19">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11">
         <f t="shared" ref="Q5:S5" si="2">+SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="20">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13">
         <v>100</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="13">
         <v>200</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20">
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
         <v>150</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="20" t="str">
         <f t="shared" ref="K6:K10" si="3">IFERROR(J6/I6-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="L6" s="20" t="str">
         <f t="shared" ref="L6:L10" si="4">IFERROR(J6/G6-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="17">
+      <c r="M6" s="10"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="20">
         <f t="shared" ref="O6:O10" si="5">IFERROR(N6/J6-1,"n/a")</f>
         <v>-1</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="17" t="str">
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="20" t="str">
         <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="17" t="str">
+      <c r="M7" s="10"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="17" t="str">
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="20" t="str">
         <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="17" t="str">
+      <c r="M8" s="10"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17" t="str">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="20" t="str">
         <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="17" t="str">
+      <c r="M9" s="8"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="17" t="str">
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="20" t="str">
         <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="17" t="str">
+      <c r="M10" s="8"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="C11" s="12"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="8"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="19">
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11">
         <f>+SUM(D13:D17)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="11">
         <f t="shared" ref="E12:G12" si="6">+SUM(E13:E17)</f>
         <v>100</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="11">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="11">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="19">
+      <c r="H12" s="8"/>
+      <c r="I12" s="11">
         <f t="shared" ref="I12:J12" si="7">+SUM(I13:I17)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="19" t="str">
         <f>IFERROR(J12/I12-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="19">
         <f>IFERROR(J12/G12-1,"n/a")</f>
         <v>-1</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="19">
+      <c r="M12" s="8"/>
+      <c r="N12" s="11">
         <f>+SUM(N13:N17)</f>
         <v>200</v>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="19" t="str">
         <f>IFERROR(N12/J12-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="19">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="11">
         <f t="shared" ref="Q12:S12" si="8">+SUM(Q13:Q17)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="17" t="str">
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="20" t="str">
         <f t="shared" ref="K13:K16" si="9">IFERROR(J13/I13-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="20" t="str">
         <f t="shared" ref="L13:L16" si="10">IFERROR(J13/G13-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="17" t="str">
+      <c r="M13" s="8"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="20" t="str">
         <f t="shared" ref="O13:O16" si="11">IFERROR(N13/J13-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <v>100</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="13">
         <v>200</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="17" t="str">
+      <c r="H14" s="8"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="20" t="str">
         <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="20">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="17" t="str">
+      <c r="M14" s="8"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="20" t="str">
         <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="17" t="str">
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="20" t="str">
         <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="20" t="str">
         <f t="shared" si="10"/>
         <v>n/a</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="17" t="str">
+      <c r="M15" s="8"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="20" t="str">
         <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="17" t="str">
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="20" t="str">
         <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="20" t="str">
         <f t="shared" si="10"/>
         <v>n/a</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="20">
+      <c r="M16" s="8"/>
+      <c r="N16" s="13">
         <v>200</v>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="20" t="str">
         <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="C17" s="12"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="19">
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11">
         <f>+SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="11">
         <f t="shared" ref="E18" si="12">+SUM(E19:E23)</f>
         <v>200</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="11">
         <f t="shared" ref="F18" si="13">+SUM(F19:F23)</f>
         <v>200</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="11">
         <f t="shared" ref="G18" si="14">+SUM(G19:G23)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="19">
+      <c r="H18" s="8"/>
+      <c r="I18" s="11">
         <f t="shared" ref="I18" si="15">+SUM(I19:I23)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="11">
         <f t="shared" ref="J18" si="16">+SUM(J19:J23)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="19" t="str">
         <f>IFERROR(J18/I18-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="19" t="str">
         <f>IFERROR(J18/G18-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="19">
+      <c r="M18" s="8"/>
+      <c r="N18" s="11">
         <f>+SUM(N19:N23)</f>
         <v>200</v>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="19" t="str">
         <f>IFERROR(N18/J18-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="19">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="11">
         <f t="shared" ref="Q18" si="17">+SUM(Q19:Q23)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="11">
         <f t="shared" ref="R18" si="18">+SUM(R19:R23)</f>
         <v>200</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="11">
         <f t="shared" ref="S18" si="19">+SUM(S19:S23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="17" t="str">
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="20" t="str">
         <f t="shared" ref="K19:K22" si="20">IFERROR(J19/I19-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="20" t="str">
         <f t="shared" ref="L19:L22" si="21">IFERROR(J19/G19-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="17" t="str">
+      <c r="M19" s="8"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="20" t="str">
         <f t="shared" ref="O19:O22" si="22">IFERROR(N19/J19-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="17" t="str">
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="20" t="str">
         <f t="shared" si="20"/>
         <v>n/a</v>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="20" t="str">
         <f t="shared" si="21"/>
         <v>n/a</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="20">
+      <c r="M20" s="8"/>
+      <c r="N20" s="13">
         <v>200</v>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="20" t="str">
         <f t="shared" si="22"/>
         <v>n/a</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13">
         <v>200</v>
       </c>
-      <c r="S20" s="20"/>
+      <c r="S20" s="13"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13">
         <v>200</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="17" t="str">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="20" t="str">
         <f t="shared" si="20"/>
         <v>n/a</v>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L21" s="20" t="str">
         <f t="shared" si="21"/>
         <v>n/a</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="17" t="str">
+      <c r="M21" s="8"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="20" t="str">
         <f t="shared" si="22"/>
         <v>n/a</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20">
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13">
         <v>200</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="17" t="str">
+      <c r="G22" s="13"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="20" t="str">
         <f t="shared" si="20"/>
         <v>n/a</v>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L22" s="20" t="str">
         <f t="shared" si="21"/>
         <v>n/a</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="17" t="str">
+      <c r="M22" s="8"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="20" t="str">
         <f t="shared" si="22"/>
         <v>n/a</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="C23" s="12"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="19">
+      <c r="B24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11">
         <f>+SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="11">
         <f t="shared" ref="E24" si="23">+SUM(E25:E29)</f>
         <v>200</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="11">
         <f t="shared" ref="F24" si="24">+SUM(F25:F29)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="11">
         <f t="shared" ref="G24" si="25">+SUM(G25:G29)</f>
         <v>200</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="19">
+      <c r="H24" s="8"/>
+      <c r="I24" s="11">
         <f t="shared" ref="I24" si="26">+SUM(I25:I29)</f>
         <v>200</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="11">
         <f t="shared" ref="J24" si="27">+SUM(J25:J29)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="19">
         <f>IFERROR(J24/I24-1,"n/a")</f>
         <v>-1</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="19">
         <f>IFERROR(J24/G24-1,"n/a")</f>
         <v>-1</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="19">
+      <c r="M24" s="8"/>
+      <c r="N24" s="11">
         <f>+SUM(N25:N29)</f>
         <v>200</v>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="19" t="str">
         <f>IFERROR(N24/J24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="19">
+      <c r="P24" s="8"/>
+      <c r="Q24" s="11">
         <f t="shared" ref="Q24" si="28">+SUM(Q25:Q29)</f>
         <v>200</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="11">
         <f t="shared" ref="R24" si="29">+SUM(R25:R29)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="11">
         <f t="shared" ref="S24" si="30">+SUM(S25:S29)</f>
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="17" t="str">
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="20" t="str">
         <f t="shared" ref="K25:K28" si="31">IFERROR(J25/I25-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="20" t="str">
         <f t="shared" ref="L25:L28" si="32">IFERROR(J25/G25-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="17" t="str">
+      <c r="M25" s="8"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="20" t="str">
         <f t="shared" ref="O25:O28" si="33">IFERROR(N25/J25-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20">
+      <c r="B26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13">
         <v>200</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="17" t="str">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="20" t="str">
         <f t="shared" si="31"/>
         <v>n/a</v>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="20" t="str">
         <f t="shared" si="32"/>
         <v>n/a</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="20">
+      <c r="M26" s="8"/>
+      <c r="N26" s="13">
         <v>200</v>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O26" s="20" t="str">
         <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="20">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="13">
         <v>200</v>
       </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13">
         <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20">
+      <c r="B27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
         <v>200</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="17" t="str">
+      <c r="H27" s="8"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="20" t="str">
         <f t="shared" si="31"/>
         <v>n/a</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="20">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="17" t="str">
+      <c r="M27" s="8"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="20" t="str">
         <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="20">
+      <c r="B28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="13">
         <v>200</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="17">
+      <c r="J28" s="13"/>
+      <c r="K28" s="20">
         <f t="shared" si="31"/>
         <v>-1</v>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="20" t="str">
         <f t="shared" si="32"/>
         <v>n/a</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="17" t="str">
+      <c r="M28" s="8"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="20" t="str">
         <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="C29" s="12"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="19">
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11">
         <f>+SUM(D31:D38)</f>
         <v>200</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="11">
         <f t="shared" ref="E30:G30" si="34">+SUM(E31:E38)</f>
         <v>200</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="19">
+      <c r="H30" s="8"/>
+      <c r="I30" s="11">
         <f t="shared" ref="I30:J30" si="35">+SUM(I31:I38)</f>
         <v>200</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="11">
         <f t="shared" si="35"/>
         <v>200</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="19">
         <f>IFERROR(J30/I30-1,"n/a")</f>
         <v>0</v>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="19" t="str">
         <f>IFERROR(J30/G30-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="19">
+      <c r="M30" s="8"/>
+      <c r="N30" s="11">
         <f>+SUM(N31:N38)</f>
         <v>200</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="19">
         <f>IFERROR(N30/J30-1,"n/a")</f>
         <v>0</v>
       </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="19">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="11">
         <f t="shared" ref="Q30:S30" si="36">+SUM(Q31:Q38)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="11">
         <f t="shared" si="36"/>
         <v>200</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="11">
         <f t="shared" si="36"/>
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="17" t="str">
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="20" t="str">
         <f t="shared" ref="K31:K37" si="37">IFERROR(J31/I31-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="20" t="str">
         <f t="shared" ref="L31:L37" si="38">IFERROR(J31/G31-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="17" t="str">
+      <c r="M31" s="8"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="20" t="str">
         <f t="shared" ref="O31:O37" si="39">IFERROR(N31/J31-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="20">
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13">
         <v>200</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="17" t="str">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
-      <c r="L32" s="17" t="str">
+      <c r="L32" s="20" t="str">
         <f t="shared" si="38"/>
         <v>n/a</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="17" t="str">
+      <c r="M32" s="8"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="20">
+      <c r="B33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="13">
         <v>200</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="13">
         <v>200</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="20">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L33" s="17" t="str">
+      <c r="L33" s="20" t="str">
         <f t="shared" si="38"/>
         <v>n/a</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="20">
+      <c r="M33" s="8"/>
+      <c r="N33" s="13">
         <v>200</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="20">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="17" t="str">
+      <c r="B34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
-      <c r="L34" s="17" t="str">
+      <c r="L34" s="20" t="str">
         <f t="shared" si="38"/>
         <v>n/a</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="17" t="str">
+      <c r="M34" s="8"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13">
         <v>200</v>
       </c>
-      <c r="S34" s="20"/>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="17" t="str">
+      <c r="B35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
-      <c r="L35" s="17" t="str">
+      <c r="L35" s="20" t="str">
         <f t="shared" si="38"/>
         <v>n/a</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="17" t="str">
+      <c r="M35" s="8"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20">
+      <c r="B36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13">
         <v>200</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="17" t="str">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
-      <c r="L36" s="17" t="str">
+      <c r="L36" s="20" t="str">
         <f t="shared" si="38"/>
         <v>n/a</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="17" t="str">
+      <c r="M36" s="8"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="17" t="str">
+      <c r="B37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
-      <c r="L37" s="17" t="str">
+      <c r="L37" s="20" t="str">
         <f t="shared" si="38"/>
         <v>n/a</v>
       </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="17" t="str">
+      <c r="M37" s="8"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="C38" s="12"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+    </row>
+    <row r="38" spans="3:19">
+      <c r="C38" s="8"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="21">
+      <c r="B39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="15">
         <f>+D5+D12+D18+D24+D30</f>
         <v>300</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="15">
         <f t="shared" ref="E39:G39" si="40">+E5+E12+E18+E24+E30</f>
         <v>900</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="15">
         <f t="shared" si="40"/>
         <v>403</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="15">
         <f t="shared" si="40"/>
         <v>203</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="21">
+      <c r="H39" s="8"/>
+      <c r="I39" s="15">
         <f t="shared" ref="I39:J39" si="41">+I5+I12+I18+I24+I30</f>
         <v>400</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="15">
         <f t="shared" si="41"/>
         <v>350</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="22">
         <f t="shared" ref="K39" si="42">IFERROR(J39/I39-1,"n/a")</f>
         <v>-0.125</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="22">
         <f t="shared" ref="L39" si="43">IFERROR(J39/G39-1,"n/a")</f>
-        <v>0.72413793103448265</v>
-      </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="21">
+        <v>0.724137931034483</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="15">
         <f>+N5+N12+N18+N24+N30</f>
         <v>800</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="22">
         <f>IFERROR(N39/J39-1,"n/a")</f>
-        <v>1.2857142857142856</v>
-      </c>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="21">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="15">
         <f t="shared" ref="Q39:S39" si="44">+Q5+Q12+Q18+Q24+Q30</f>
         <v>200</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="15">
         <f t="shared" si="44"/>
         <v>400</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39" s="15">
         <f t="shared" si="44"/>
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
-      <c r="C40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="2:19">
-      <c r="C41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="P41" s="12"/>
+    <row r="40" spans="3:16">
+      <c r="C40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="C41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="P41" s="8"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="2">
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="1">
         <v>20</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>15</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>25</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>2</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="2">
+      <c r="H42" s="8"/>
+      <c r="I42" s="1">
         <v>3</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>15</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="20">
         <f t="shared" ref="K42:K43" si="45">IFERROR(J42/I42-1,"n/a")</f>
         <v>4</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="20">
         <f t="shared" ref="L42:L43" si="46">IFERROR(J42/G42-1,"n/a")</f>
         <v>6.5</v>
       </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="2">
+      <c r="M42" s="8"/>
+      <c r="N42" s="1">
         <v>18</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="20">
         <f t="shared" ref="O42:O43" si="47">IFERROR(N42/J42-1,"n/a")</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="1">
         <v>15</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="1">
         <v>17</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:19">
-      <c r="B43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="22">
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="16">
         <f>+D39/D42</f>
         <v>15</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="16">
         <f t="shared" ref="E43:G43" si="48">+E39/E42</f>
         <v>60</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="16">
         <f t="shared" si="48"/>
         <v>16.12</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="16">
         <f t="shared" si="48"/>
         <v>101.5</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="22">
+      <c r="H43" s="17"/>
+      <c r="I43" s="16">
         <f t="shared" ref="I43:J43" si="49">+I39/I42</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="J43" s="22">
+        <v>133.333333333333</v>
+      </c>
+      <c r="J43" s="16">
         <f t="shared" si="49"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="K43" s="17">
+        <v>23.3333333333333</v>
+      </c>
+      <c r="K43" s="20">
         <f t="shared" si="45"/>
-        <v>-0.82499999999999996</v>
-      </c>
-      <c r="L43" s="17">
+        <v>-0.825</v>
+      </c>
+      <c r="L43" s="20">
         <f t="shared" si="46"/>
-        <v>-0.77011494252873569</v>
-      </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="22">
+        <v>-0.770114942528736</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="16">
         <f>+N39/N42</f>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="O43" s="17">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="O43" s="20">
         <f t="shared" si="47"/>
-        <v>0.90476190476190488</v>
-      </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="22">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="16">
         <f t="shared" ref="Q43:S43" si="50">+Q39/Q42</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="R43" s="22">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="R43" s="16">
         <f t="shared" si="50"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="S43" s="22">
+        <v>23.5294117647059</v>
+      </c>
+      <c r="S43" s="16">
         <f t="shared" si="50"/>
-        <v>26.666666666666668</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19">
-      <c r="C44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="P44" s="12"/>
+        <v>26.6666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="P44" s="8"/>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="2">
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="1">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="2">
+      <c r="H45" s="8"/>
+      <c r="I45" s="1">
         <v>0</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="17" t="str">
+      <c r="K45" s="20" t="str">
         <f t="shared" ref="K45" si="51">IFERROR(J45/I45-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L45" s="17" t="str">
+      <c r="L45" s="20" t="str">
         <f t="shared" ref="L45" si="52">IFERROR(J45/G45-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M45" s="12"/>
-      <c r="N45" s="2">
+      <c r="M45" s="8"/>
+      <c r="N45" s="1">
         <v>0</v>
       </c>
-      <c r="O45" s="17" t="str">
+      <c r="O45" s="20" t="str">
         <f t="shared" ref="O45" si="53">IFERROR(N45/J45-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="2">
+      <c r="P45" s="8"/>
+      <c r="Q45" s="1">
         <v>0</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:19">
-      <c r="C46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="2:19">
-      <c r="C47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="P47" s="12"/>
-    </row>
-    <row r="48" spans="2:19">
-      <c r="C48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="P48" s="12"/>
+    <row r="46" spans="3:16">
+      <c r="C46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="3:16">
+      <c r="C47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="3:16">
+      <c r="C48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="P48" s="8"/>
     </row>
     <row r="49" spans="3:16">
-      <c r="C49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="P49" s="12"/>
+      <c r="C49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="P49" s="8"/>
     </row>
     <row r="50" spans="3:16">
-      <c r="C50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="P50" s="12"/>
+      <c r="C50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="P50" s="8"/>
     </row>
     <row r="51" spans="3:16">
-      <c r="C51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="P51" s="12"/>
+      <c r="C51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="P51" s="8"/>
     </row>
     <row r="52" spans="3:16">
-      <c r="C52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="P52" s="12"/>
+      <c r="C52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="P52" s="8"/>
     </row>
     <row r="53" spans="3:16">
-      <c r="C53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="P53" s="12"/>
+      <c r="C53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="P53" s="8"/>
     </row>
     <row r="54" spans="3:16">
-      <c r="C54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="P54" s="12"/>
+      <c r="C54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="P54" s="8"/>
     </row>
     <row r="55" spans="3:16">
-      <c r="C55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="P55" s="12"/>
+      <c r="C55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="P55" s="8"/>
     </row>
     <row r="56" spans="3:16">
-      <c r="C56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="P56" s="12"/>
+      <c r="C56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="P56" s="8"/>
     </row>
     <row r="57" spans="3:16">
-      <c r="C57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="P57" s="12"/>
+      <c r="C57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="P57" s="8"/>
     </row>
     <row r="58" spans="3:16">
-      <c r="C58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="P58" s="12"/>
+      <c r="C58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="3:16">
-      <c r="C59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="P59" s="12"/>
+      <c r="C59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="P59" s="8"/>
     </row>
     <row r="60" spans="3:16">
-      <c r="C60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="P60" s="12"/>
+      <c r="C60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="P60" s="8"/>
     </row>
     <row r="61" spans="3:16">
-      <c r="C61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="P61" s="12"/>
+      <c r="C61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="P61" s="8"/>
     </row>
     <row r="62" spans="3:16">
-      <c r="C62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="P62" s="12"/>
+      <c r="C62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="P62" s="8"/>
     </row>
     <row r="63" spans="3:16">
-      <c r="C63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="P63" s="12"/>
+      <c r="C63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="P63" s="8"/>
     </row>
     <row r="64" spans="3:16">
-      <c r="C64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="P64" s="12"/>
+      <c r="C64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="P64" s="8"/>
     </row>
     <row r="65" spans="3:16">
-      <c r="C65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="P65" s="12"/>
+      <c r="C65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="P65" s="8"/>
     </row>
     <row r="66" spans="3:16">
-      <c r="C66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="P66" s="12"/>
+      <c r="C66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="P66" s="8"/>
     </row>
     <row r="67" spans="3:16">
-      <c r="C67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="P67" s="12"/>
+      <c r="C67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="P67" s="8"/>
     </row>
     <row r="68" spans="3:16">
-      <c r="C68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="P68" s="12"/>
+      <c r="C68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="P68" s="8"/>
     </row>
     <row r="69" spans="3:16">
-      <c r="C69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="P69" s="12"/>
+      <c r="C69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="P69" s="8"/>
     </row>
     <row r="70" spans="3:16">
-      <c r="C70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="P70" s="12"/>
+      <c r="C70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="P70" s="8"/>
     </row>
     <row r="71" spans="3:16">
-      <c r="C71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="P71" s="12"/>
+      <c r="C71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="P71" s="8"/>
     </row>
     <row r="72" spans="3:16">
-      <c r="C72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="P72" s="12"/>
+      <c r="C72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="P72" s="8"/>
     </row>
     <row r="73" spans="3:16">
-      <c r="C73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="C73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="P73" s="8"/>
     </row>
     <row r="74" spans="3:16">
-      <c r="C74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="P74" s="12"/>
+      <c r="C74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="P74" s="8"/>
     </row>
     <row r="75" spans="3:16">
-      <c r="C75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="P75" s="12"/>
+      <c r="C75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="P75" s="8"/>
     </row>
     <row r="76" spans="3:16">
-      <c r="C76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="P76" s="12"/>
+      <c r="C76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="P76" s="8"/>
     </row>
     <row r="77" spans="3:16">
-      <c r="C77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="P77" s="12"/>
+      <c r="C77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="P77" s="8"/>
     </row>
     <row r="78" spans="3:16">
-      <c r="C78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="P78" s="12"/>
+      <c r="C78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="P78" s="8"/>
     </row>
     <row r="79" spans="3:16">
-      <c r="C79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="P79" s="12"/>
+      <c r="C79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="P79" s="8"/>
     </row>
     <row r="80" spans="3:16">
-      <c r="C80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="P80" s="12"/>
+      <c r="C80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="P80" s="8"/>
     </row>
     <row r="81" spans="3:16">
-      <c r="C81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="P81" s="12"/>
+      <c r="C81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="P81" s="8"/>
     </row>
     <row r="82" spans="3:16">
-      <c r="C82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="P82" s="12"/>
+      <c r="C82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="P82" s="8"/>
     </row>
     <row r="83" spans="3:16">
-      <c r="C83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="P83" s="12"/>
+      <c r="C83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="P83" s="8"/>
     </row>
     <row r="84" spans="3:16">
-      <c r="C84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="P84" s="12"/>
+      <c r="C84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="P84" s="8"/>
     </row>
     <row r="85" spans="3:16">
-      <c r="C85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="P85" s="12"/>
+      <c r="C85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="P85" s="8"/>
     </row>
     <row r="86" spans="3:16">
-      <c r="C86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="P86" s="12"/>
+      <c r="C86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="P86" s="8"/>
     </row>
     <row r="87" spans="3:16">
-      <c r="C87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="P87" s="12"/>
+      <c r="C87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="P87" s="8"/>
     </row>
     <row r="88" spans="3:16">
-      <c r="C88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="P88" s="12"/>
+      <c r="C88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="P88" s="8"/>
     </row>
     <row r="89" spans="3:16">
-      <c r="C89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="P89" s="12"/>
+      <c r="C89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="P89" s="8"/>
     </row>
     <row r="90" spans="3:16">
-      <c r="C90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="P90" s="12"/>
+      <c r="C90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="P90" s="8"/>
     </row>
     <row r="91" spans="3:16">
-      <c r="C91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="P91" s="12"/>
+      <c r="C91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="P91" s="8"/>
     </row>
     <row r="92" spans="3:16">
-      <c r="C92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="P92" s="12"/>
+      <c r="C92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="P92" s="8"/>
     </row>
     <row r="93" spans="3:16">
-      <c r="C93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="P93" s="12"/>
+      <c r="C93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="P93" s="8"/>
     </row>
     <row r="94" spans="3:16">
-      <c r="C94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="P94" s="12"/>
+      <c r="C94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="P94" s="8"/>
     </row>
     <row r="95" spans="3:16">
-      <c r="C95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="P95" s="12"/>
+      <c r="C95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="P95" s="8"/>
     </row>
     <row r="96" spans="3:16">
-      <c r="C96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="P96" s="12"/>
+      <c r="C96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="P96" s="8"/>
     </row>
     <row r="97" spans="3:16">
-      <c r="C97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="P97" s="12"/>
+      <c r="C97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="P97" s="8"/>
     </row>
     <row r="98" spans="3:16">
-      <c r="C98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="P98" s="12"/>
+      <c r="C98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="P98" s="8"/>
     </row>
     <row r="99" spans="3:16">
-      <c r="C99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="P99" s="12"/>
+      <c r="C99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="P99" s="8"/>
     </row>
     <row r="100" spans="3:16">
-      <c r="C100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="P100" s="12"/>
+      <c r="C100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="P100" s="8"/>
     </row>
     <row r="101" spans="3:16">
-      <c r="C101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="P101" s="12"/>
+      <c r="C101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="P101" s="8"/>
     </row>
     <row r="102" spans="3:16">
-      <c r="C102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="P102" s="12"/>
+      <c r="C102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="P102" s="8"/>
     </row>
     <row r="103" spans="3:16">
-      <c r="C103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="P103" s="12"/>
+      <c r="C103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="P103" s="8"/>
     </row>
     <row r="104" spans="3:16">
-      <c r="C104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="P104" s="12"/>
+      <c r="C104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="P104" s="8"/>
     </row>
     <row r="105" spans="3:16">
-      <c r="C105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="P105" s="12"/>
+      <c r="C105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="P105" s="8"/>
     </row>
     <row r="106" spans="3:16">
-      <c r="C106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="P106" s="12"/>
+      <c r="C106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="P106" s="8"/>
     </row>
     <row r="107" spans="3:16">
-      <c r="C107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="P107" s="12"/>
+      <c r="C107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="P107" s="8"/>
     </row>
     <row r="108" spans="3:16">
-      <c r="C108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="P108" s="12"/>
+      <c r="C108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="P108" s="8"/>
     </row>
     <row r="109" spans="3:16">
-      <c r="C109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="P109" s="12"/>
+      <c r="C109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="P109" s="8"/>
     </row>
     <row r="110" spans="3:16">
-      <c r="C110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="P110" s="12"/>
+      <c r="C110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="P110" s="8"/>
     </row>
     <row r="111" spans="3:16">
-      <c r="C111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="P111" s="12"/>
+      <c r="C111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="P111" s="8"/>
     </row>
     <row r="112" spans="3:16">
-      <c r="C112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="P112" s="12"/>
+      <c r="C112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="P112" s="8"/>
     </row>
     <row r="113" spans="3:16">
-      <c r="C113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="P113" s="12"/>
+      <c r="C113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="P113" s="8"/>
     </row>
     <row r="114" spans="3:16">
-      <c r="C114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="P114" s="12"/>
+      <c r="C114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="P114" s="8"/>
     </row>
     <row r="115" spans="3:16">
-      <c r="C115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="P115" s="12"/>
+      <c r="C115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="P115" s="8"/>
     </row>
     <row r="116" spans="3:16">
-      <c r="C116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="P116" s="12"/>
+      <c r="C116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="P116" s="8"/>
     </row>
     <row r="117" spans="3:16">
-      <c r="C117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="P117" s="12"/>
+      <c r="C117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="P117" s="8"/>
     </row>
     <row r="118" spans="3:16">
-      <c r="C118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="P118" s="12"/>
+      <c r="C118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="P118" s="8"/>
     </row>
     <row r="119" spans="3:16">
-      <c r="C119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="P119" s="12"/>
+      <c r="C119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="P119" s="8"/>
     </row>
     <row r="120" spans="3:16">
-      <c r="C120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="P120" s="12"/>
+      <c r="C120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="P120" s="8"/>
     </row>
     <row r="121" spans="3:16">
-      <c r="C121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="P121" s="12"/>
+      <c r="C121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="P121" s="8"/>
     </row>
     <row r="122" spans="3:16">
-      <c r="C122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="P122" s="12"/>
+      <c r="C122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="P122" s="8"/>
     </row>
     <row r="123" spans="3:16">
-      <c r="C123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="P123" s="12"/>
+      <c r="C123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="P123" s="8"/>
     </row>
     <row r="124" spans="3:16">
-      <c r="C124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="P124" s="12"/>
+      <c r="C124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="P124" s="8"/>
     </row>
     <row r="125" spans="3:16">
-      <c r="C125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="P125" s="12"/>
+      <c r="C125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="P125" s="8"/>
     </row>
     <row r="126" spans="3:16">
-      <c r="C126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="P126" s="12"/>
+      <c r="C126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="P126" s="8"/>
     </row>
     <row r="127" spans="3:16">
-      <c r="C127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="P127" s="12"/>
+      <c r="C127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="P127" s="8"/>
     </row>
     <row r="128" spans="3:16">
-      <c r="C128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="P128" s="12"/>
+      <c r="C128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="P128" s="8"/>
     </row>
     <row r="129" spans="3:16">
-      <c r="C129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="P129" s="12"/>
+      <c r="C129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="P129" s="8"/>
     </row>
     <row r="130" spans="3:16">
-      <c r="C130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="P130" s="12"/>
+      <c r="C130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="P130" s="8"/>
     </row>
     <row r="131" spans="3:16">
-      <c r="C131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="M131" s="12"/>
-      <c r="P131" s="12"/>
+      <c r="C131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="P131" s="8"/>
     </row>
     <row r="132" spans="3:16">
-      <c r="C132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="M132" s="12"/>
-      <c r="P132" s="12"/>
+      <c r="C132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="P132" s="8"/>
     </row>
     <row r="133" spans="3:16">
-      <c r="C133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="M133" s="12"/>
-      <c r="P133" s="12"/>
+      <c r="C133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="P133" s="8"/>
     </row>
     <row r="134" spans="3:16">
-      <c r="C134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="M134" s="12"/>
-      <c r="P134" s="12"/>
+      <c r="C134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="P134" s="8"/>
     </row>
     <row r="135" spans="3:16">
-      <c r="C135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="M135" s="12"/>
-      <c r="P135" s="12"/>
+      <c r="C135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="P135" s="8"/>
     </row>
     <row r="136" spans="3:16">
-      <c r="C136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="P136" s="12"/>
+      <c r="C136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="P136" s="8"/>
     </row>
     <row r="137" spans="3:16">
-      <c r="C137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="P137" s="12"/>
+      <c r="C137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="P137" s="8"/>
     </row>
     <row r="138" spans="3:16">
-      <c r="C138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="M138" s="12"/>
-      <c r="P138" s="12"/>
+      <c r="C138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="P138" s="8"/>
     </row>
     <row r="139" spans="3:16">
-      <c r="C139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="M139" s="12"/>
-      <c r="P139" s="12"/>
+      <c r="C139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="P139" s="8"/>
     </row>
     <row r="140" spans="3:16">
-      <c r="C140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="P140" s="12"/>
+      <c r="C140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="P140" s="8"/>
     </row>
     <row r="141" spans="3:16">
-      <c r="C141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="P141" s="12"/>
+      <c r="C141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="P141" s="8"/>
     </row>
     <row r="142" spans="3:16">
-      <c r="C142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="P142" s="12"/>
+      <c r="C142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="P142" s="8"/>
     </row>
     <row r="143" spans="3:16">
-      <c r="C143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="P143" s="12"/>
+      <c r="C143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="P143" s="8"/>
     </row>
     <row r="144" spans="3:16">
-      <c r="C144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="P144" s="12"/>
+      <c r="C144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="P144" s="8"/>
     </row>
     <row r="145" spans="3:16">
-      <c r="C145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="P145" s="12"/>
+      <c r="C145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="P145" s="8"/>
     </row>
     <row r="146" spans="3:16">
-      <c r="C146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="P146" s="12"/>
+      <c r="C146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="P146" s="8"/>
     </row>
     <row r="147" spans="3:16">
-      <c r="C147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="P147" s="12"/>
+      <c r="C147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="P147" s="8"/>
     </row>
     <row r="148" spans="3:16">
-      <c r="C148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="P148" s="12"/>
+      <c r="C148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="P148" s="8"/>
     </row>
     <row r="149" spans="3:16">
-      <c r="C149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="P149" s="12"/>
+      <c r="C149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="P149" s="8"/>
     </row>
     <row r="150" spans="3:16">
-      <c r="C150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="P150" s="12"/>
+      <c r="C150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="P150" s="8"/>
     </row>
     <row r="151" spans="3:16">
-      <c r="C151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="P151" s="12"/>
+      <c r="C151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="P151" s="8"/>
     </row>
     <row r="152" spans="3:16">
-      <c r="C152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="P152" s="12"/>
+      <c r="C152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="P152" s="8"/>
     </row>
     <row r="153" spans="3:16">
-      <c r="C153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="P153" s="12"/>
+      <c r="C153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="P153" s="8"/>
     </row>
     <row r="154" spans="3:16">
-      <c r="C154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="P154" s="12"/>
+      <c r="C154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="P154" s="8"/>
     </row>
     <row r="155" spans="3:16">
-      <c r="C155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="P155" s="12"/>
+      <c r="C155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="P155" s="8"/>
     </row>
     <row r="156" spans="3:16">
-      <c r="C156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="P156" s="12"/>
+      <c r="C156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="P156" s="8"/>
     </row>
     <row r="157" spans="3:16">
-      <c r="C157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="P157" s="12"/>
+      <c r="C157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="P157" s="8"/>
     </row>
     <row r="158" spans="3:16">
-      <c r="C158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="M158" s="12"/>
-      <c r="P158" s="12"/>
+      <c r="C158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="P158" s="8"/>
     </row>
     <row r="159" spans="3:16">
-      <c r="C159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="P159" s="12"/>
+      <c r="C159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="P159" s="8"/>
     </row>
     <row r="160" spans="3:16">
-      <c r="C160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="P160" s="12"/>
+      <c r="C160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="P160" s="8"/>
     </row>
     <row r="161" spans="3:16">
-      <c r="C161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="P161" s="12"/>
+      <c r="C161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="P161" s="8"/>
     </row>
     <row r="162" spans="3:16">
-      <c r="C162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="P162" s="12"/>
+      <c r="C162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="P162" s="8"/>
     </row>
     <row r="163" spans="3:16">
-      <c r="C163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="P163" s="12"/>
+      <c r="C163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="P163" s="8"/>
     </row>
     <row r="164" spans="3:16">
-      <c r="C164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="P164" s="12"/>
+      <c r="C164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="P164" s="8"/>
     </row>
     <row r="165" spans="3:16">
-      <c r="C165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="P165" s="12"/>
+      <c r="C165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="P165" s="8"/>
     </row>
     <row r="166" spans="3:16">
-      <c r="C166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="P166" s="12"/>
+      <c r="C166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="P166" s="8"/>
     </row>
     <row r="167" spans="3:16">
-      <c r="C167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="P167" s="12"/>
+      <c r="C167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="P167" s="8"/>
     </row>
     <row r="168" spans="3:16">
-      <c r="C168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="M168" s="12"/>
-      <c r="P168" s="12"/>
+      <c r="C168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="P168" s="8"/>
     </row>
     <row r="169" spans="3:16">
-      <c r="C169" s="12"/>
-      <c r="H169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="P169" s="12"/>
+      <c r="C169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="P169" s="8"/>
     </row>
     <row r="170" spans="3:16">
-      <c r="C170" s="12"/>
-      <c r="H170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="P170" s="12"/>
+      <c r="C170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="P170" s="8"/>
     </row>
     <row r="171" spans="3:16">
-      <c r="C171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="M171" s="12"/>
-      <c r="P171" s="12"/>
+      <c r="C171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="P171" s="8"/>
     </row>
     <row r="172" spans="3:16">
-      <c r="C172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="P172" s="12"/>
+      <c r="C172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="M172" s="8"/>
+      <c r="P172" s="8"/>
     </row>
     <row r="173" spans="3:16">
-      <c r="C173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="M173" s="12"/>
-      <c r="P173" s="12"/>
+      <c r="C173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="M173" s="8"/>
+      <c r="P173" s="8"/>
     </row>
     <row r="174" spans="3:16">
-      <c r="C174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="M174" s="14"/>
-      <c r="P174" s="14"/>
+      <c r="C174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="M174" s="23"/>
+      <c r="P174" s="23"/>
     </row>
     <row r="175" spans="3:16">
-      <c r="C175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="M175" s="14"/>
-      <c r="P175" s="14"/>
+      <c r="C175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="M175" s="23"/>
+      <c r="P175" s="23"/>
     </row>
     <row r="176" spans="3:16">
-      <c r="C176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="P176" s="14"/>
+      <c r="C176" s="23"/>
+      <c r="H176" s="23"/>
+      <c r="M176" s="23"/>
+      <c r="P176" s="23"/>
     </row>
     <row r="177" spans="3:16">
-      <c r="C177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="M177" s="14"/>
-      <c r="P177" s="14"/>
+      <c r="C177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="M177" s="23"/>
+      <c r="P177" s="23"/>
     </row>
     <row r="178" spans="3:16">
-      <c r="C178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="M178" s="14"/>
-      <c r="P178" s="14"/>
+      <c r="C178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="M178" s="23"/>
+      <c r="P178" s="23"/>
     </row>
     <row r="179" spans="3:16">
-      <c r="C179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="M179" s="14"/>
-      <c r="P179" s="14"/>
+      <c r="C179" s="23"/>
+      <c r="H179" s="23"/>
+      <c r="M179" s="23"/>
+      <c r="P179" s="23"/>
     </row>
     <row r="180" spans="3:16">
-      <c r="C180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="M180" s="14"/>
-      <c r="P180" s="14"/>
+      <c r="C180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="M180" s="23"/>
+      <c r="P180" s="23"/>
     </row>
     <row r="181" spans="3:16">
-      <c r="C181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="M181" s="14"/>
-      <c r="P181" s="14"/>
+      <c r="C181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="M181" s="23"/>
+      <c r="P181" s="23"/>
     </row>
     <row r="183" spans="3:16">
-      <c r="C183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="P183" s="12"/>
+      <c r="C183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="M183" s="8"/>
+      <c r="P183" s="8"/>
     </row>
     <row r="188" spans="3:16">
-      <c r="C188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="M188" s="12"/>
-      <c r="P188" s="12"/>
+      <c r="C188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="P188" s="8"/>
     </row>
     <row r="189" spans="3:16">
-      <c r="C189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="P189" s="12"/>
+      <c r="C189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="M189" s="8"/>
+      <c r="P189" s="8"/>
     </row>
     <row r="190" spans="3:16">
-      <c r="C190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="M190" s="12"/>
-      <c r="P190" s="12"/>
+      <c r="C190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="P190" s="8"/>
     </row>
     <row r="191" spans="3:16">
-      <c r="C191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="M191" s="12"/>
-      <c r="P191" s="12"/>
+      <c r="C191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="M191" s="8"/>
+      <c r="P191" s="8"/>
     </row>
     <row r="192" spans="3:16">
-      <c r="C192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="M192" s="12"/>
-      <c r="P192" s="12"/>
+      <c r="C192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="M192" s="8"/>
+      <c r="P192" s="8"/>
     </row>
     <row r="193" spans="3:16">
-      <c r="C193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="M193" s="12"/>
-      <c r="P193" s="12"/>
+      <c r="C193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="P193" s="8"/>
     </row>
     <row r="194" spans="3:16">
-      <c r="C194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="M194" s="12"/>
-      <c r="P194" s="12"/>
+      <c r="C194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="P194" s="8"/>
     </row>
     <row r="195" spans="3:16">
-      <c r="C195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="M195" s="12"/>
-      <c r="P195" s="12"/>
+      <c r="C195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="M195" s="8"/>
+      <c r="P195" s="8"/>
     </row>
     <row r="196" spans="3:16">
-      <c r="C196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="M196" s="12"/>
-      <c r="P196" s="12"/>
+      <c r="C196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="M196" s="8"/>
+      <c r="P196" s="8"/>
     </row>
     <row r="197" spans="3:16">
-      <c r="C197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="P197" s="12"/>
+      <c r="C197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="P197" s="8"/>
     </row>
     <row r="198" spans="3:16">
-      <c r="C198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="P198" s="12"/>
+      <c r="C198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="M198" s="8"/>
+      <c r="P198" s="8"/>
     </row>
     <row r="199" spans="3:16">
-      <c r="C199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="P199" s="12"/>
+      <c r="C199" s="8"/>
+      <c r="H199" s="8"/>
+      <c r="M199" s="8"/>
+      <c r="P199" s="8"/>
     </row>
     <row r="200" spans="3:16">
-      <c r="C200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="P200" s="12"/>
+      <c r="C200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="M200" s="8"/>
+      <c r="P200" s="8"/>
     </row>
     <row r="201" spans="3:16">
-      <c r="C201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="P201" s="12"/>
+      <c r="C201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="P201" s="8"/>
     </row>
     <row r="202" spans="3:16">
-      <c r="C202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="P202" s="12"/>
+      <c r="C202" s="8"/>
+      <c r="H202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="P202" s="8"/>
     </row>
     <row r="203" spans="3:16">
-      <c r="C203" s="12"/>
-      <c r="H203" s="12"/>
-      <c r="M203" s="12"/>
-      <c r="P203" s="12"/>
+      <c r="C203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="P203" s="8"/>
     </row>
     <row r="204" spans="3:16">
-      <c r="C204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="M204" s="12"/>
-      <c r="P204" s="12"/>
+      <c r="C204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="P204" s="8"/>
     </row>
     <row r="205" spans="3:16">
-      <c r="C205" s="12"/>
-      <c r="H205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="P205" s="12"/>
+      <c r="C205" s="8"/>
+      <c r="H205" s="8"/>
+      <c r="M205" s="8"/>
+      <c r="P205" s="8"/>
     </row>
     <row r="206" spans="3:16">
-      <c r="C206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="M206" s="12"/>
-      <c r="P206" s="12"/>
+      <c r="C206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="M206" s="8"/>
+      <c r="P206" s="8"/>
     </row>
     <row r="207" spans="3:16">
-      <c r="C207" s="12"/>
-      <c r="H207" s="12"/>
-      <c r="M207" s="12"/>
-      <c r="P207" s="12"/>
+      <c r="C207" s="8"/>
+      <c r="H207" s="8"/>
+      <c r="M207" s="8"/>
+      <c r="P207" s="8"/>
     </row>
     <row r="208" spans="3:16">
-      <c r="C208" s="12"/>
-      <c r="H208" s="12"/>
-      <c r="M208" s="12"/>
-      <c r="P208" s="12"/>
+      <c r="C208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="M208" s="8"/>
+      <c r="P208" s="8"/>
     </row>
     <row r="209" spans="3:16">
-      <c r="C209" s="12"/>
-      <c r="H209" s="12"/>
-      <c r="M209" s="12"/>
-      <c r="P209" s="12"/>
+      <c r="C209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="M209" s="8"/>
+      <c r="P209" s="8"/>
     </row>
     <row r="210" spans="3:16">
-      <c r="C210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="M210" s="12"/>
-      <c r="P210" s="12"/>
+      <c r="C210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="M210" s="8"/>
+      <c r="P210" s="8"/>
     </row>
     <row r="211" spans="3:16">
-      <c r="C211" s="12"/>
-      <c r="H211" s="12"/>
-      <c r="M211" s="12"/>
-      <c r="P211" s="12"/>
+      <c r="C211" s="8"/>
+      <c r="H211" s="8"/>
+      <c r="M211" s="8"/>
+      <c r="P211" s="8"/>
     </row>
     <row r="212" spans="3:16">
-      <c r="C212" s="12"/>
-      <c r="H212" s="12"/>
-      <c r="M212" s="12"/>
-      <c r="P212" s="12"/>
+      <c r="C212" s="8"/>
+      <c r="H212" s="8"/>
+      <c r="M212" s="8"/>
+      <c r="P212" s="8"/>
     </row>
     <row r="213" spans="3:16">
-      <c r="C213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="P213" s="12"/>
+      <c r="C213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="M213" s="8"/>
+      <c r="P213" s="8"/>
     </row>
     <row r="214" spans="3:16">
-      <c r="C214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="M214" s="12"/>
-      <c r="P214" s="12"/>
+      <c r="C214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="M214" s="8"/>
+      <c r="P214" s="8"/>
     </row>
     <row r="215" spans="3:16">
-      <c r="C215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="M215" s="12"/>
-      <c r="P215" s="12"/>
+      <c r="C215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="M215" s="8"/>
+      <c r="P215" s="8"/>
     </row>
     <row r="216" spans="3:16">
-      <c r="C216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="P216" s="12"/>
+      <c r="C216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="M216" s="8"/>
+      <c r="P216" s="8"/>
     </row>
     <row r="217" spans="3:16">
-      <c r="C217" s="12"/>
-      <c r="H217" s="12"/>
-      <c r="M217" s="12"/>
-      <c r="P217" s="12"/>
+      <c r="C217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="M217" s="8"/>
+      <c r="P217" s="8"/>
     </row>
     <row r="218" spans="3:16">
-      <c r="C218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="P218" s="12"/>
+      <c r="C218" s="8"/>
+      <c r="H218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="P218" s="8"/>
     </row>
     <row r="219" spans="3:16">
-      <c r="C219" s="12"/>
-      <c r="H219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="P219" s="12"/>
+      <c r="C219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="P219" s="8"/>
     </row>
     <row r="220" spans="3:16">
-      <c r="C220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="P220" s="12"/>
+      <c r="C220" s="8"/>
+      <c r="H220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="P220" s="8"/>
     </row>
     <row r="221" spans="3:16">
-      <c r="C221" s="12"/>
-      <c r="H221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="P221" s="12"/>
+      <c r="C221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="M221" s="8"/>
+      <c r="P221" s="8"/>
     </row>
     <row r="222" spans="3:16">
-      <c r="C222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="P222" s="12"/>
+      <c r="C222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="M222" s="8"/>
+      <c r="P222" s="8"/>
     </row>
     <row r="223" spans="3:16">
-      <c r="C223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="M223" s="12"/>
-      <c r="P223" s="12"/>
+      <c r="C223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="M223" s="8"/>
+      <c r="P223" s="8"/>
     </row>
     <row r="224" spans="3:16">
-      <c r="C224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="P224" s="12"/>
+      <c r="C224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="M224" s="8"/>
+      <c r="P224" s="8"/>
     </row>
     <row r="225" spans="3:16">
-      <c r="C225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="M225" s="12"/>
-      <c r="P225" s="12"/>
+      <c r="C225" s="8"/>
+      <c r="H225" s="8"/>
+      <c r="M225" s="8"/>
+      <c r="P225" s="8"/>
     </row>
     <row r="226" spans="3:16">
-      <c r="C226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="P226" s="12"/>
+      <c r="C226" s="8"/>
+      <c r="H226" s="8"/>
+      <c r="M226" s="8"/>
+      <c r="P226" s="8"/>
     </row>
     <row r="227" spans="3:16">
-      <c r="C227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="M227" s="12"/>
-      <c r="P227" s="12"/>
+      <c r="C227" s="8"/>
+      <c r="H227" s="8"/>
+      <c r="M227" s="8"/>
+      <c r="P227" s="8"/>
     </row>
     <row r="228" spans="3:16">
-      <c r="C228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="P228" s="12"/>
+      <c r="C228" s="8"/>
+      <c r="H228" s="8"/>
+      <c r="M228" s="8"/>
+      <c r="P228" s="8"/>
     </row>
     <row r="229" spans="3:16">
-      <c r="C229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="M229" s="12"/>
-      <c r="P229" s="12"/>
+      <c r="C229" s="8"/>
+      <c r="H229" s="8"/>
+      <c r="M229" s="8"/>
+      <c r="P229" s="8"/>
     </row>
     <row r="230" spans="3:16">
-      <c r="C230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="P230" s="12"/>
+      <c r="C230" s="8"/>
+      <c r="H230" s="8"/>
+      <c r="M230" s="8"/>
+      <c r="P230" s="8"/>
     </row>
     <row r="231" spans="3:16">
-      <c r="C231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="P231" s="12"/>
+      <c r="C231" s="8"/>
+      <c r="H231" s="8"/>
+      <c r="M231" s="8"/>
+      <c r="P231" s="8"/>
     </row>
     <row r="232" spans="3:16">
-      <c r="C232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="P232" s="12"/>
+      <c r="C232" s="8"/>
+      <c r="H232" s="8"/>
+      <c r="M232" s="8"/>
+      <c r="P232" s="8"/>
     </row>
     <row r="233" spans="3:16">
-      <c r="C233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="M233" s="12"/>
-      <c r="P233" s="12"/>
+      <c r="C233" s="8"/>
+      <c r="H233" s="8"/>
+      <c r="M233" s="8"/>
+      <c r="P233" s="8"/>
     </row>
     <row r="234" spans="3:16">
-      <c r="C234" s="12"/>
-      <c r="H234" s="12"/>
-      <c r="M234" s="12"/>
-      <c r="P234" s="12"/>
+      <c r="C234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="M234" s="8"/>
+      <c r="P234" s="8"/>
     </row>
     <row r="235" spans="3:16">
-      <c r="C235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="P235" s="12"/>
+      <c r="C235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="M235" s="8"/>
+      <c r="P235" s="8"/>
     </row>
     <row r="236" spans="3:16">
-      <c r="C236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="M236" s="12"/>
-      <c r="P236" s="12"/>
+      <c r="C236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="M236" s="8"/>
+      <c r="P236" s="8"/>
     </row>
     <row r="237" spans="3:16">
-      <c r="C237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="M237" s="12"/>
-      <c r="P237" s="12"/>
+      <c r="C237" s="8"/>
+      <c r="H237" s="8"/>
+      <c r="M237" s="8"/>
+      <c r="P237" s="8"/>
     </row>
     <row r="238" spans="3:16">
-      <c r="C238" s="12"/>
-      <c r="H238" s="12"/>
-      <c r="M238" s="12"/>
-      <c r="P238" s="12"/>
+      <c r="C238" s="8"/>
+      <c r="H238" s="8"/>
+      <c r="M238" s="8"/>
+      <c r="P238" s="8"/>
     </row>
     <row r="239" spans="3:16">
-      <c r="C239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="P239" s="12"/>
+      <c r="C239" s="8"/>
+      <c r="H239" s="8"/>
+      <c r="M239" s="8"/>
+      <c r="P239" s="8"/>
     </row>
     <row r="240" spans="3:16">
-      <c r="C240" s="12"/>
-      <c r="H240" s="12"/>
-      <c r="M240" s="12"/>
-      <c r="P240" s="12"/>
+      <c r="C240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="M240" s="8"/>
+      <c r="P240" s="8"/>
     </row>
     <row r="241" spans="3:16">
-      <c r="C241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="P241" s="12"/>
+      <c r="C241" s="8"/>
+      <c r="H241" s="8"/>
+      <c r="M241" s="8"/>
+      <c r="P241" s="8"/>
     </row>
     <row r="242" spans="3:16">
-      <c r="C242" s="12"/>
-      <c r="H242" s="12"/>
-      <c r="M242" s="12"/>
-      <c r="P242" s="12"/>
+      <c r="C242" s="8"/>
+      <c r="H242" s="8"/>
+      <c r="M242" s="8"/>
+      <c r="P242" s="8"/>
     </row>
     <row r="243" spans="3:16">
-      <c r="C243" s="12"/>
-      <c r="H243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="P243" s="12"/>
+      <c r="C243" s="8"/>
+      <c r="H243" s="8"/>
+      <c r="M243" s="8"/>
+      <c r="P243" s="8"/>
     </row>
     <row r="244" spans="3:16">
-      <c r="C244" s="12"/>
-      <c r="H244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="P244" s="12"/>
+      <c r="C244" s="8"/>
+      <c r="H244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="P244" s="8"/>
     </row>
     <row r="245" spans="3:16">
-      <c r="C245" s="12"/>
-      <c r="H245" s="12"/>
-      <c r="M245" s="12"/>
-      <c r="P245" s="12"/>
+      <c r="C245" s="8"/>
+      <c r="H245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="P245" s="8"/>
     </row>
     <row r="246" spans="3:16">
-      <c r="C246" s="12"/>
-      <c r="H246" s="12"/>
-      <c r="M246" s="12"/>
-      <c r="P246" s="12"/>
+      <c r="C246" s="8"/>
+      <c r="H246" s="8"/>
+      <c r="M246" s="8"/>
+      <c r="P246" s="8"/>
     </row>
     <row r="247" spans="3:16">
-      <c r="C247" s="12"/>
-      <c r="H247" s="12"/>
-      <c r="M247" s="12"/>
-      <c r="P247" s="12"/>
+      <c r="C247" s="8"/>
+      <c r="H247" s="8"/>
+      <c r="M247" s="8"/>
+      <c r="P247" s="8"/>
     </row>
     <row r="248" spans="3:16">
-      <c r="C248" s="12"/>
-      <c r="H248" s="12"/>
-      <c r="M248" s="12"/>
-      <c r="P248" s="12"/>
+      <c r="C248" s="8"/>
+      <c r="H248" s="8"/>
+      <c r="M248" s="8"/>
+      <c r="P248" s="8"/>
     </row>
     <row r="249" spans="3:16">
-      <c r="C249" s="12"/>
-      <c r="H249" s="12"/>
-      <c r="M249" s="12"/>
-      <c r="P249" s="12"/>
+      <c r="C249" s="8"/>
+      <c r="H249" s="8"/>
+      <c r="M249" s="8"/>
+      <c r="P249" s="8"/>
     </row>
     <row r="250" spans="3:16">
-      <c r="C250" s="12"/>
-      <c r="H250" s="12"/>
-      <c r="M250" s="12"/>
-      <c r="P250" s="12"/>
+      <c r="C250" s="8"/>
+      <c r="H250" s="8"/>
+      <c r="M250" s="8"/>
+      <c r="P250" s="8"/>
     </row>
     <row r="251" spans="3:16">
-      <c r="C251" s="12"/>
-      <c r="H251" s="12"/>
-      <c r="M251" s="12"/>
-      <c r="P251" s="12"/>
+      <c r="C251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="M251" s="8"/>
+      <c r="P251" s="8"/>
     </row>
     <row r="252" spans="3:16">
-      <c r="C252" s="12"/>
-      <c r="H252" s="12"/>
-      <c r="M252" s="12"/>
-      <c r="P252" s="12"/>
+      <c r="C252" s="8"/>
+      <c r="H252" s="8"/>
+      <c r="M252" s="8"/>
+      <c r="P252" s="8"/>
     </row>
     <row r="253" spans="3:16">
-      <c r="C253" s="12"/>
-      <c r="H253" s="12"/>
-      <c r="M253" s="12"/>
-      <c r="P253" s="12"/>
+      <c r="C253" s="8"/>
+      <c r="H253" s="8"/>
+      <c r="M253" s="8"/>
+      <c r="P253" s="8"/>
     </row>
     <row r="254" spans="3:16">
-      <c r="C254" s="12"/>
-      <c r="H254" s="12"/>
-      <c r="M254" s="12"/>
-      <c r="P254" s="12"/>
+      <c r="C254" s="8"/>
+      <c r="H254" s="8"/>
+      <c r="M254" s="8"/>
+      <c r="P254" s="8"/>
     </row>
     <row r="255" spans="3:16">
-      <c r="C255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="M255" s="12"/>
-      <c r="P255" s="12"/>
+      <c r="C255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="M255" s="8"/>
+      <c r="P255" s="8"/>
     </row>
     <row r="256" spans="3:16">
-      <c r="C256" s="12"/>
-      <c r="H256" s="12"/>
-      <c r="M256" s="12"/>
-      <c r="P256" s="12"/>
+      <c r="C256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="M256" s="8"/>
+      <c r="P256" s="8"/>
     </row>
     <row r="257" spans="3:16">
-      <c r="C257" s="12"/>
-      <c r="H257" s="12"/>
-      <c r="M257" s="12"/>
-      <c r="P257" s="12"/>
+      <c r="C257" s="8"/>
+      <c r="H257" s="8"/>
+      <c r="M257" s="8"/>
+      <c r="P257" s="8"/>
     </row>
     <row r="258" spans="3:16">
-      <c r="C258" s="12"/>
-      <c r="H258" s="12"/>
-      <c r="M258" s="12"/>
-      <c r="P258" s="12"/>
+      <c r="C258" s="8"/>
+      <c r="H258" s="8"/>
+      <c r="M258" s="8"/>
+      <c r="P258" s="8"/>
     </row>
     <row r="259" spans="3:16">
-      <c r="C259" s="12"/>
-      <c r="H259" s="12"/>
-      <c r="M259" s="12"/>
-      <c r="P259" s="12"/>
+      <c r="C259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="P259" s="8"/>
     </row>
     <row r="260" spans="3:16">
-      <c r="C260" s="12"/>
-      <c r="H260" s="12"/>
-      <c r="M260" s="12"/>
-      <c r="P260" s="12"/>
+      <c r="C260" s="8"/>
+      <c r="H260" s="8"/>
+      <c r="M260" s="8"/>
+      <c r="P260" s="8"/>
     </row>
     <row r="261" spans="3:16">
-      <c r="C261" s="12"/>
-      <c r="H261" s="12"/>
-      <c r="M261" s="12"/>
-      <c r="P261" s="12"/>
+      <c r="C261" s="8"/>
+      <c r="H261" s="8"/>
+      <c r="M261" s="8"/>
+      <c r="P261" s="8"/>
     </row>
     <row r="262" spans="3:16">
-      <c r="C262" s="12"/>
-      <c r="H262" s="12"/>
-      <c r="M262" s="12"/>
-      <c r="P262" s="12"/>
+      <c r="C262" s="8"/>
+      <c r="H262" s="8"/>
+      <c r="M262" s="8"/>
+      <c r="P262" s="8"/>
     </row>
     <row r="263" spans="3:16">
-      <c r="C263" s="12"/>
-      <c r="H263" s="12"/>
-      <c r="M263" s="12"/>
-      <c r="P263" s="12"/>
+      <c r="C263" s="8"/>
+      <c r="H263" s="8"/>
+      <c r="M263" s="8"/>
+      <c r="P263" s="8"/>
     </row>
     <row r="264" spans="3:16">
-      <c r="C264" s="12"/>
-      <c r="H264" s="12"/>
-      <c r="M264" s="12"/>
-      <c r="P264" s="12"/>
+      <c r="C264" s="8"/>
+      <c r="H264" s="8"/>
+      <c r="M264" s="8"/>
+      <c r="P264" s="8"/>
     </row>
     <row r="265" spans="3:16">
-      <c r="C265" s="12"/>
-      <c r="H265" s="12"/>
-      <c r="M265" s="12"/>
-      <c r="P265" s="12"/>
+      <c r="C265" s="8"/>
+      <c r="H265" s="8"/>
+      <c r="M265" s="8"/>
+      <c r="P265" s="8"/>
     </row>
     <row r="266" spans="3:16">
-      <c r="C266" s="12"/>
-      <c r="H266" s="12"/>
-      <c r="M266" s="12"/>
-      <c r="P266" s="12"/>
+      <c r="C266" s="8"/>
+      <c r="H266" s="8"/>
+      <c r="M266" s="8"/>
+      <c r="P266" s="8"/>
     </row>
     <row r="267" spans="3:16">
-      <c r="C267" s="12"/>
-      <c r="H267" s="12"/>
-      <c r="M267" s="12"/>
-      <c r="P267" s="12"/>
+      <c r="C267" s="8"/>
+      <c r="H267" s="8"/>
+      <c r="M267" s="8"/>
+      <c r="P267" s="8"/>
     </row>
     <row r="268" spans="3:16">
-      <c r="C268" s="12"/>
-      <c r="H268" s="12"/>
-      <c r="M268" s="12"/>
-      <c r="P268" s="12"/>
+      <c r="C268" s="8"/>
+      <c r="H268" s="8"/>
+      <c r="M268" s="8"/>
+      <c r="P268" s="8"/>
     </row>
     <row r="269" spans="3:16">
-      <c r="C269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="M269" s="12"/>
-      <c r="P269" s="12"/>
+      <c r="C269" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="M269" s="8"/>
+      <c r="P269" s="8"/>
     </row>
     <row r="270" spans="3:16">
-      <c r="C270" s="12"/>
-      <c r="H270" s="12"/>
-      <c r="M270" s="12"/>
-      <c r="P270" s="12"/>
+      <c r="C270" s="8"/>
+      <c r="H270" s="8"/>
+      <c r="M270" s="8"/>
+      <c r="P270" s="8"/>
     </row>
     <row r="271" spans="3:16">
-      <c r="C271" s="12"/>
-      <c r="H271" s="12"/>
-      <c r="M271" s="12"/>
-      <c r="P271" s="12"/>
+      <c r="C271" s="8"/>
+      <c r="H271" s="8"/>
+      <c r="M271" s="8"/>
+      <c r="P271" s="8"/>
     </row>
     <row r="272" spans="3:16">
-      <c r="C272" s="12"/>
-      <c r="H272" s="12"/>
-      <c r="M272" s="12"/>
-      <c r="P272" s="12"/>
+      <c r="C272" s="8"/>
+      <c r="H272" s="8"/>
+      <c r="M272" s="8"/>
+      <c r="P272" s="8"/>
     </row>
     <row r="273" spans="3:16">
-      <c r="C273" s="12"/>
-      <c r="H273" s="12"/>
-      <c r="M273" s="12"/>
-      <c r="P273" s="12"/>
+      <c r="C273" s="8"/>
+      <c r="H273" s="8"/>
+      <c r="M273" s="8"/>
+      <c r="P273" s="8"/>
     </row>
     <row r="274" spans="3:16">
-      <c r="C274" s="12"/>
-      <c r="H274" s="12"/>
-      <c r="M274" s="12"/>
-      <c r="P274" s="12"/>
+      <c r="C274" s="8"/>
+      <c r="H274" s="8"/>
+      <c r="M274" s="8"/>
+      <c r="P274" s="8"/>
     </row>
     <row r="275" spans="3:16">
-      <c r="C275" s="12"/>
-      <c r="H275" s="12"/>
-      <c r="M275" s="12"/>
-      <c r="P275" s="12"/>
+      <c r="C275" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="M275" s="8"/>
+      <c r="P275" s="8"/>
     </row>
     <row r="276" spans="3:16">
-      <c r="C276" s="12"/>
-      <c r="H276" s="12"/>
-      <c r="M276" s="12"/>
-      <c r="P276" s="12"/>
+      <c r="C276" s="8"/>
+      <c r="H276" s="8"/>
+      <c r="M276" s="8"/>
+      <c r="P276" s="8"/>
     </row>
     <row r="277" spans="3:16">
-      <c r="C277" s="12"/>
-      <c r="H277" s="12"/>
-      <c r="M277" s="12"/>
-      <c r="P277" s="12"/>
+      <c r="C277" s="8"/>
+      <c r="H277" s="8"/>
+      <c r="M277" s="8"/>
+      <c r="P277" s="8"/>
     </row>
     <row r="278" spans="3:16">
-      <c r="C278" s="12"/>
-      <c r="H278" s="12"/>
-      <c r="M278" s="12"/>
-      <c r="P278" s="12"/>
+      <c r="C278" s="8"/>
+      <c r="H278" s="8"/>
+      <c r="M278" s="8"/>
+      <c r="P278" s="8"/>
     </row>
     <row r="280" spans="3:16">
-      <c r="C280" s="12"/>
-      <c r="H280" s="12"/>
-      <c r="M280" s="12"/>
-      <c r="P280" s="12"/>
+      <c r="C280" s="8"/>
+      <c r="H280" s="8"/>
+      <c r="M280" s="8"/>
+      <c r="P280" s="8"/>
     </row>
     <row r="281" spans="3:16">
-      <c r="C281" s="12"/>
-      <c r="H281" s="12"/>
-      <c r="M281" s="12"/>
-      <c r="P281" s="12"/>
+      <c r="C281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="M281" s="8"/>
+      <c r="P281" s="8"/>
     </row>
     <row r="282" spans="3:16">
-      <c r="C282" s="12"/>
-      <c r="H282" s="12"/>
-      <c r="M282" s="12"/>
-      <c r="P282" s="12"/>
+      <c r="C282" s="8"/>
+      <c r="H282" s="8"/>
+      <c r="M282" s="8"/>
+      <c r="P282" s="8"/>
     </row>
     <row r="283" spans="3:16">
-      <c r="C283" s="12"/>
-      <c r="H283" s="12"/>
-      <c r="M283" s="12"/>
-      <c r="P283" s="12"/>
+      <c r="C283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="M283" s="8"/>
+      <c r="P283" s="8"/>
     </row>
     <row r="284" spans="3:16">
-      <c r="C284" s="12"/>
-      <c r="H284" s="12"/>
-      <c r="M284" s="12"/>
-      <c r="P284" s="12"/>
+      <c r="C284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="M284" s="8"/>
+      <c r="P284" s="8"/>
     </row>
     <row r="285" spans="3:16">
-      <c r="C285" s="12"/>
-      <c r="H285" s="12"/>
-      <c r="M285" s="12"/>
-      <c r="P285" s="12"/>
+      <c r="C285" s="8"/>
+      <c r="H285" s="8"/>
+      <c r="M285" s="8"/>
+      <c r="P285" s="8"/>
     </row>
     <row r="286" spans="3:16">
-      <c r="C286" s="12"/>
-      <c r="H286" s="12"/>
-      <c r="M286" s="12"/>
-      <c r="P286" s="12"/>
+      <c r="C286" s="8"/>
+      <c r="H286" s="8"/>
+      <c r="M286" s="8"/>
+      <c r="P286" s="8"/>
     </row>
     <row r="287" spans="3:16">
-      <c r="C287" s="12"/>
-      <c r="H287" s="12"/>
-      <c r="M287" s="12"/>
-      <c r="P287" s="12"/>
+      <c r="C287" s="8"/>
+      <c r="H287" s="8"/>
+      <c r="M287" s="8"/>
+      <c r="P287" s="8"/>
     </row>
     <row r="288" spans="3:16">
-      <c r="C288" s="12"/>
-      <c r="H288" s="12"/>
-      <c r="M288" s="12"/>
-      <c r="P288" s="12"/>
+      <c r="C288" s="8"/>
+      <c r="H288" s="8"/>
+      <c r="M288" s="8"/>
+      <c r="P288" s="8"/>
     </row>
     <row r="289" spans="3:16">
-      <c r="C289" s="12"/>
-      <c r="H289" s="12"/>
-      <c r="M289" s="12"/>
-      <c r="P289" s="12"/>
+      <c r="C289" s="8"/>
+      <c r="H289" s="8"/>
+      <c r="M289" s="8"/>
+      <c r="P289" s="8"/>
     </row>
     <row r="290" spans="3:16">
-      <c r="C290" s="12"/>
-      <c r="H290" s="12"/>
-      <c r="M290" s="12"/>
-      <c r="P290" s="12"/>
+      <c r="C290" s="8"/>
+      <c r="H290" s="8"/>
+      <c r="M290" s="8"/>
+      <c r="P290" s="8"/>
     </row>
     <row r="291" spans="3:16">
-      <c r="C291" s="12"/>
-      <c r="H291" s="12"/>
-      <c r="M291" s="12"/>
-      <c r="P291" s="12"/>
+      <c r="C291" s="8"/>
+      <c r="H291" s="8"/>
+      <c r="M291" s="8"/>
+      <c r="P291" s="8"/>
     </row>
     <row r="292" spans="3:16">
-      <c r="C292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="M292" s="12"/>
-      <c r="P292" s="12"/>
+      <c r="C292" s="8"/>
+      <c r="H292" s="8"/>
+      <c r="M292" s="8"/>
+      <c r="P292" s="8"/>
     </row>
     <row r="293" spans="3:16">
-      <c r="C293" s="12"/>
-      <c r="H293" s="12"/>
-      <c r="M293" s="12"/>
-      <c r="P293" s="12"/>
+      <c r="C293" s="8"/>
+      <c r="H293" s="8"/>
+      <c r="M293" s="8"/>
+      <c r="P293" s="8"/>
     </row>
     <row r="294" spans="3:16">
-      <c r="C294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="M294" s="12"/>
-      <c r="P294" s="12"/>
+      <c r="C294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="M294" s="8"/>
+      <c r="P294" s="8"/>
     </row>
     <row r="295" spans="3:16">
-      <c r="C295" s="12"/>
-      <c r="H295" s="12"/>
-      <c r="M295" s="12"/>
-      <c r="P295" s="12"/>
+      <c r="C295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="M295" s="8"/>
+      <c r="P295" s="8"/>
     </row>
     <row r="296" spans="3:16">
-      <c r="C296" s="12"/>
-      <c r="H296" s="12"/>
-      <c r="M296" s="12"/>
-      <c r="P296" s="12"/>
+      <c r="C296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="M296" s="8"/>
+      <c r="P296" s="8"/>
     </row>
     <row r="297" spans="3:16">
-      <c r="C297" s="12"/>
-      <c r="H297" s="12"/>
-      <c r="M297" s="12"/>
-      <c r="P297" s="12"/>
+      <c r="C297" s="8"/>
+      <c r="H297" s="8"/>
+      <c r="M297" s="8"/>
+      <c r="P297" s="8"/>
     </row>
     <row r="298" spans="3:16">
-      <c r="C298" s="12"/>
-      <c r="H298" s="12"/>
-      <c r="M298" s="12"/>
-      <c r="P298" s="12"/>
+      <c r="C298" s="8"/>
+      <c r="H298" s="8"/>
+      <c r="M298" s="8"/>
+      <c r="P298" s="8"/>
     </row>
     <row r="299" spans="3:16">
-      <c r="C299" s="12"/>
-      <c r="H299" s="12"/>
-      <c r="M299" s="12"/>
-      <c r="P299" s="12"/>
+      <c r="C299" s="8"/>
+      <c r="H299" s="8"/>
+      <c r="M299" s="8"/>
+      <c r="P299" s="8"/>
     </row>
     <row r="300" spans="3:16">
-      <c r="C300" s="12"/>
-      <c r="H300" s="12"/>
-      <c r="M300" s="12"/>
-      <c r="P300" s="12"/>
+      <c r="C300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="M300" s="8"/>
+      <c r="P300" s="8"/>
     </row>
     <row r="301" spans="3:16">
-      <c r="C301" s="12"/>
-      <c r="H301" s="12"/>
-      <c r="M301" s="12"/>
-      <c r="P301" s="12"/>
+      <c r="C301" s="8"/>
+      <c r="H301" s="8"/>
+      <c r="M301" s="8"/>
+      <c r="P301" s="8"/>
     </row>
     <row r="302" spans="3:16">
-      <c r="C302" s="12"/>
-      <c r="H302" s="12"/>
-      <c r="M302" s="12"/>
-      <c r="P302" s="12"/>
+      <c r="C302" s="8"/>
+      <c r="H302" s="8"/>
+      <c r="M302" s="8"/>
+      <c r="P302" s="8"/>
     </row>
     <row r="303" spans="3:16">
-      <c r="C303" s="12"/>
-      <c r="H303" s="12"/>
-      <c r="M303" s="12"/>
-      <c r="P303" s="12"/>
+      <c r="C303" s="8"/>
+      <c r="H303" s="8"/>
+      <c r="M303" s="8"/>
+      <c r="P303" s="8"/>
     </row>
     <row r="304" spans="3:16">
-      <c r="C304" s="12"/>
-      <c r="H304" s="12"/>
-      <c r="M304" s="12"/>
-      <c r="P304" s="12"/>
+      <c r="C304" s="8"/>
+      <c r="H304" s="8"/>
+      <c r="M304" s="8"/>
+      <c r="P304" s="8"/>
     </row>
     <row r="305" spans="3:16">
-      <c r="C305" s="12"/>
-      <c r="H305" s="12"/>
-      <c r="M305" s="12"/>
-      <c r="P305" s="12"/>
+      <c r="C305" s="8"/>
+      <c r="H305" s="8"/>
+      <c r="M305" s="8"/>
+      <c r="P305" s="8"/>
     </row>
     <row r="306" spans="3:16">
-      <c r="C306" s="12"/>
-      <c r="H306" s="12"/>
-      <c r="M306" s="12"/>
-      <c r="P306" s="12"/>
+      <c r="C306" s="8"/>
+      <c r="H306" s="8"/>
+      <c r="M306" s="8"/>
+      <c r="P306" s="8"/>
     </row>
     <row r="307" spans="3:16">
-      <c r="C307" s="12"/>
-      <c r="H307" s="12"/>
-      <c r="M307" s="12"/>
-      <c r="P307" s="12"/>
+      <c r="C307" s="8"/>
+      <c r="H307" s="8"/>
+      <c r="M307" s="8"/>
+      <c r="P307" s="8"/>
     </row>
     <row r="308" spans="3:16">
-      <c r="C308" s="12"/>
-      <c r="H308" s="12"/>
-      <c r="M308" s="12"/>
-      <c r="P308" s="12"/>
+      <c r="C308" s="8"/>
+      <c r="H308" s="8"/>
+      <c r="M308" s="8"/>
+      <c r="P308" s="8"/>
     </row>
     <row r="309" spans="3:16">
-      <c r="C309" s="12"/>
-      <c r="H309" s="12"/>
-      <c r="M309" s="12"/>
-      <c r="P309" s="12"/>
+      <c r="C309" s="8"/>
+      <c r="H309" s="8"/>
+      <c r="M309" s="8"/>
+      <c r="P309" s="8"/>
     </row>
     <row r="310" spans="3:16">
-      <c r="C310" s="12"/>
-      <c r="H310" s="12"/>
-      <c r="M310" s="12"/>
-      <c r="P310" s="12"/>
+      <c r="C310" s="8"/>
+      <c r="H310" s="8"/>
+      <c r="M310" s="8"/>
+      <c r="P310" s="8"/>
     </row>
     <row r="311" spans="3:16">
-      <c r="C311" s="12"/>
-      <c r="H311" s="12"/>
-      <c r="M311" s="12"/>
-      <c r="P311" s="12"/>
+      <c r="C311" s="8"/>
+      <c r="H311" s="8"/>
+      <c r="M311" s="8"/>
+      <c r="P311" s="8"/>
     </row>
     <row r="312" spans="3:16">
-      <c r="C312" s="12"/>
-      <c r="H312" s="12"/>
-      <c r="M312" s="12"/>
-      <c r="P312" s="12"/>
+      <c r="C312" s="8"/>
+      <c r="H312" s="8"/>
+      <c r="M312" s="8"/>
+      <c r="P312" s="8"/>
     </row>
     <row r="313" spans="3:16">
-      <c r="C313" s="12"/>
-      <c r="H313" s="12"/>
-      <c r="M313" s="12"/>
-      <c r="P313" s="12"/>
+      <c r="C313" s="8"/>
+      <c r="H313" s="8"/>
+      <c r="M313" s="8"/>
+      <c r="P313" s="8"/>
     </row>
     <row r="314" spans="3:16">
-      <c r="C314" s="12"/>
-      <c r="H314" s="12"/>
-      <c r="M314" s="12"/>
-      <c r="P314" s="12"/>
+      <c r="C314" s="8"/>
+      <c r="H314" s="8"/>
+      <c r="M314" s="8"/>
+      <c r="P314" s="8"/>
     </row>
     <row r="315" spans="3:16">
-      <c r="C315" s="12"/>
-      <c r="H315" s="12"/>
-      <c r="M315" s="12"/>
-      <c r="P315" s="12"/>
+      <c r="C315" s="8"/>
+      <c r="H315" s="8"/>
+      <c r="M315" s="8"/>
+      <c r="P315" s="8"/>
     </row>
     <row r="316" spans="3:16">
-      <c r="C316" s="12"/>
-      <c r="H316" s="12"/>
-      <c r="M316" s="12"/>
-      <c r="P316" s="12"/>
+      <c r="C316" s="8"/>
+      <c r="H316" s="8"/>
+      <c r="M316" s="8"/>
+      <c r="P316" s="8"/>
     </row>
     <row r="317" spans="3:16">
-      <c r="C317" s="12"/>
-      <c r="H317" s="12"/>
-      <c r="M317" s="12"/>
-      <c r="P317" s="12"/>
+      <c r="C317" s="8"/>
+      <c r="H317" s="8"/>
+      <c r="M317" s="8"/>
+      <c r="P317" s="8"/>
     </row>
     <row r="318" spans="3:16">
-      <c r="C318" s="12"/>
-      <c r="H318" s="12"/>
-      <c r="M318" s="12"/>
-      <c r="P318" s="12"/>
+      <c r="C318" s="8"/>
+      <c r="H318" s="8"/>
+      <c r="M318" s="8"/>
+      <c r="P318" s="8"/>
     </row>
     <row r="319" spans="3:16">
-      <c r="C319" s="12"/>
-      <c r="H319" s="12"/>
-      <c r="M319" s="12"/>
-      <c r="P319" s="12"/>
+      <c r="C319" s="8"/>
+      <c r="H319" s="8"/>
+      <c r="M319" s="8"/>
+      <c r="P319" s="8"/>
     </row>
     <row r="320" spans="3:16">
-      <c r="C320" s="12"/>
-      <c r="H320" s="12"/>
-      <c r="M320" s="12"/>
-      <c r="P320" s="12"/>
+      <c r="C320" s="8"/>
+      <c r="H320" s="8"/>
+      <c r="M320" s="8"/>
+      <c r="P320" s="8"/>
     </row>
     <row r="321" spans="3:16">
-      <c r="C321" s="12"/>
-      <c r="H321" s="12"/>
-      <c r="M321" s="12"/>
-      <c r="P321" s="12"/>
+      <c r="C321" s="8"/>
+      <c r="H321" s="8"/>
+      <c r="M321" s="8"/>
+      <c r="P321" s="8"/>
     </row>
     <row r="322" spans="3:16">
-      <c r="C322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="M322" s="12"/>
-      <c r="P322" s="12"/>
+      <c r="C322" s="8"/>
+      <c r="H322" s="8"/>
+      <c r="M322" s="8"/>
+      <c r="P322" s="8"/>
     </row>
     <row r="323" spans="3:16">
-      <c r="C323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="M323" s="12"/>
-      <c r="P323" s="12"/>
+      <c r="C323" s="8"/>
+      <c r="H323" s="8"/>
+      <c r="M323" s="8"/>
+      <c r="P323" s="8"/>
     </row>
     <row r="324" spans="3:16">
-      <c r="C324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="M324" s="12"/>
-      <c r="P324" s="12"/>
+      <c r="C324" s="8"/>
+      <c r="H324" s="8"/>
+      <c r="M324" s="8"/>
+      <c r="P324" s="8"/>
     </row>
     <row r="325" spans="3:16">
-      <c r="C325" s="12"/>
-      <c r="H325" s="12"/>
-      <c r="M325" s="12"/>
-      <c r="P325" s="12"/>
+      <c r="C325" s="8"/>
+      <c r="H325" s="8"/>
+      <c r="M325" s="8"/>
+      <c r="P325" s="8"/>
     </row>
     <row r="326" spans="3:16">
-      <c r="C326" s="12"/>
-      <c r="H326" s="12"/>
-      <c r="M326" s="12"/>
-      <c r="P326" s="12"/>
+      <c r="C326" s="8"/>
+      <c r="H326" s="8"/>
+      <c r="M326" s="8"/>
+      <c r="P326" s="8"/>
     </row>
     <row r="327" spans="3:16">
-      <c r="C327" s="12"/>
-      <c r="H327" s="12"/>
-      <c r="M327" s="12"/>
-      <c r="P327" s="12"/>
+      <c r="C327" s="8"/>
+      <c r="H327" s="8"/>
+      <c r="M327" s="8"/>
+      <c r="P327" s="8"/>
     </row>
     <row r="328" spans="3:16">
-      <c r="C328" s="12"/>
-      <c r="H328" s="12"/>
-      <c r="M328" s="12"/>
-      <c r="P328" s="12"/>
+      <c r="C328" s="8"/>
+      <c r="H328" s="8"/>
+      <c r="M328" s="8"/>
+      <c r="P328" s="8"/>
     </row>
     <row r="329" spans="3:16">
-      <c r="C329" s="12"/>
-      <c r="H329" s="12"/>
-      <c r="M329" s="12"/>
-      <c r="P329" s="12"/>
+      <c r="C329" s="8"/>
+      <c r="H329" s="8"/>
+      <c r="M329" s="8"/>
+      <c r="P329" s="8"/>
     </row>
     <row r="330" spans="3:16">
-      <c r="C330" s="12"/>
-      <c r="H330" s="12"/>
-      <c r="M330" s="12"/>
-      <c r="P330" s="12"/>
+      <c r="C330" s="8"/>
+      <c r="H330" s="8"/>
+      <c r="M330" s="8"/>
+      <c r="P330" s="8"/>
     </row>
     <row r="331" spans="3:16">
-      <c r="C331" s="12"/>
-      <c r="H331" s="12"/>
-      <c r="M331" s="12"/>
-      <c r="P331" s="12"/>
+      <c r="C331" s="8"/>
+      <c r="H331" s="8"/>
+      <c r="M331" s="8"/>
+      <c r="P331" s="8"/>
     </row>
     <row r="332" spans="3:16">
-      <c r="C332" s="12"/>
-      <c r="H332" s="12"/>
-      <c r="M332" s="12"/>
-      <c r="P332" s="12"/>
+      <c r="C332" s="8"/>
+      <c r="H332" s="8"/>
+      <c r="M332" s="8"/>
+      <c r="P332" s="8"/>
     </row>
     <row r="333" spans="3:16">
-      <c r="C333" s="12"/>
-      <c r="H333" s="12"/>
-      <c r="M333" s="12"/>
-      <c r="P333" s="12"/>
+      <c r="C333" s="8"/>
+      <c r="H333" s="8"/>
+      <c r="M333" s="8"/>
+      <c r="P333" s="8"/>
     </row>
     <row r="334" spans="3:16">
-      <c r="C334" s="12"/>
-      <c r="H334" s="12"/>
-      <c r="M334" s="12"/>
-      <c r="P334" s="12"/>
+      <c r="C334" s="8"/>
+      <c r="H334" s="8"/>
+      <c r="M334" s="8"/>
+      <c r="P334" s="8"/>
     </row>
     <row r="335" spans="3:16">
-      <c r="C335" s="12"/>
-      <c r="H335" s="12"/>
-      <c r="M335" s="12"/>
-      <c r="P335" s="12"/>
+      <c r="C335" s="8"/>
+      <c r="H335" s="8"/>
+      <c r="M335" s="8"/>
+      <c r="P335" s="8"/>
     </row>
     <row r="336" spans="3:16">
-      <c r="C336" s="12"/>
-      <c r="H336" s="12"/>
-      <c r="M336" s="12"/>
-      <c r="P336" s="12"/>
+      <c r="C336" s="8"/>
+      <c r="H336" s="8"/>
+      <c r="M336" s="8"/>
+      <c r="P336" s="8"/>
     </row>
     <row r="337" spans="3:16">
-      <c r="C337" s="12"/>
-      <c r="H337" s="12"/>
-      <c r="M337" s="12"/>
-      <c r="P337" s="12"/>
+      <c r="C337" s="8"/>
+      <c r="H337" s="8"/>
+      <c r="M337" s="8"/>
+      <c r="P337" s="8"/>
     </row>
     <row r="338" spans="3:16">
-      <c r="C338" s="12"/>
-      <c r="H338" s="12"/>
-      <c r="M338" s="12"/>
-      <c r="P338" s="12"/>
+      <c r="C338" s="8"/>
+      <c r="H338" s="8"/>
+      <c r="M338" s="8"/>
+      <c r="P338" s="8"/>
     </row>
     <row r="339" spans="3:16">
-      <c r="C339" s="12"/>
-      <c r="H339" s="12"/>
-      <c r="M339" s="12"/>
-      <c r="P339" s="12"/>
+      <c r="C339" s="8"/>
+      <c r="H339" s="8"/>
+      <c r="M339" s="8"/>
+      <c r="P339" s="8"/>
     </row>
     <row r="340" spans="3:16">
-      <c r="C340" s="12"/>
-      <c r="H340" s="12"/>
-      <c r="M340" s="12"/>
-      <c r="P340" s="12"/>
+      <c r="C340" s="8"/>
+      <c r="H340" s="8"/>
+      <c r="M340" s="8"/>
+      <c r="P340" s="8"/>
     </row>
     <row r="341" spans="3:16">
-      <c r="C341" s="12"/>
-      <c r="H341" s="12"/>
-      <c r="M341" s="12"/>
-      <c r="P341" s="12"/>
+      <c r="C341" s="8"/>
+      <c r="H341" s="8"/>
+      <c r="M341" s="8"/>
+      <c r="P341" s="8"/>
     </row>
     <row r="342" spans="3:16">
-      <c r="C342" s="12"/>
-      <c r="H342" s="12"/>
-      <c r="M342" s="12"/>
-      <c r="P342" s="12"/>
+      <c r="C342" s="8"/>
+      <c r="H342" s="8"/>
+      <c r="M342" s="8"/>
+      <c r="P342" s="8"/>
     </row>
     <row r="343" spans="3:16">
-      <c r="C343" s="12"/>
-      <c r="H343" s="12"/>
-      <c r="M343" s="12"/>
-      <c r="P343" s="12"/>
+      <c r="C343" s="8"/>
+      <c r="H343" s="8"/>
+      <c r="M343" s="8"/>
+      <c r="P343" s="8"/>
     </row>
     <row r="344" spans="3:16">
-      <c r="C344" s="12"/>
-      <c r="H344" s="12"/>
-      <c r="M344" s="12"/>
-      <c r="P344" s="12"/>
+      <c r="C344" s="8"/>
+      <c r="H344" s="8"/>
+      <c r="M344" s="8"/>
+      <c r="P344" s="8"/>
     </row>
     <row r="345" spans="3:16">
-      <c r="C345" s="12"/>
-      <c r="H345" s="12"/>
-      <c r="M345" s="12"/>
-      <c r="P345" s="12"/>
+      <c r="C345" s="8"/>
+      <c r="H345" s="8"/>
+      <c r="M345" s="8"/>
+      <c r="P345" s="8"/>
     </row>
     <row r="346" spans="3:16">
-      <c r="C346" s="12"/>
-      <c r="H346" s="12"/>
-      <c r="M346" s="12"/>
-      <c r="P346" s="12"/>
+      <c r="C346" s="8"/>
+      <c r="H346" s="8"/>
+      <c r="M346" s="8"/>
+      <c r="P346" s="8"/>
     </row>
     <row r="347" spans="3:16">
-      <c r="C347" s="12"/>
-      <c r="H347" s="12"/>
-      <c r="M347" s="12"/>
-      <c r="P347" s="12"/>
+      <c r="C347" s="8"/>
+      <c r="H347" s="8"/>
+      <c r="M347" s="8"/>
+      <c r="P347" s="8"/>
     </row>
     <row r="348" spans="3:16">
-      <c r="C348" s="12"/>
-      <c r="H348" s="12"/>
-      <c r="M348" s="12"/>
-      <c r="P348" s="12"/>
+      <c r="C348" s="8"/>
+      <c r="H348" s="8"/>
+      <c r="M348" s="8"/>
+      <c r="P348" s="8"/>
     </row>
     <row r="349" spans="3:16">
-      <c r="C349" s="12"/>
-      <c r="H349" s="12"/>
-      <c r="M349" s="12"/>
-      <c r="P349" s="12"/>
+      <c r="C349" s="8"/>
+      <c r="H349" s="8"/>
+      <c r="M349" s="8"/>
+      <c r="P349" s="8"/>
     </row>
     <row r="350" spans="3:16">
-      <c r="C350" s="12"/>
-      <c r="H350" s="12"/>
-      <c r="M350" s="12"/>
-      <c r="P350" s="12"/>
+      <c r="C350" s="8"/>
+      <c r="H350" s="8"/>
+      <c r="M350" s="8"/>
+      <c r="P350" s="8"/>
     </row>
     <row r="351" spans="3:16">
-      <c r="C351" s="12"/>
-      <c r="H351" s="12"/>
-      <c r="M351" s="12"/>
-      <c r="P351" s="12"/>
+      <c r="C351" s="8"/>
+      <c r="H351" s="8"/>
+      <c r="M351" s="8"/>
+      <c r="P351" s="8"/>
     </row>
     <row r="352" spans="3:16">
-      <c r="C352" s="12"/>
-      <c r="H352" s="12"/>
-      <c r="M352" s="12"/>
-      <c r="P352" s="12"/>
+      <c r="C352" s="8"/>
+      <c r="H352" s="8"/>
+      <c r="M352" s="8"/>
+      <c r="P352" s="8"/>
     </row>
     <row r="353" spans="3:16">
-      <c r="C353" s="12"/>
-      <c r="H353" s="12"/>
-      <c r="M353" s="12"/>
-      <c r="P353" s="12"/>
+      <c r="C353" s="8"/>
+      <c r="H353" s="8"/>
+      <c r="M353" s="8"/>
+      <c r="P353" s="8"/>
     </row>
     <row r="354" spans="3:16">
-      <c r="C354" s="12"/>
-      <c r="H354" s="12"/>
-      <c r="M354" s="12"/>
-      <c r="P354" s="12"/>
+      <c r="C354" s="8"/>
+      <c r="H354" s="8"/>
+      <c r="M354" s="8"/>
+      <c r="P354" s="8"/>
     </row>
     <row r="355" spans="3:16">
-      <c r="C355" s="12"/>
-      <c r="H355" s="12"/>
-      <c r="M355" s="12"/>
-      <c r="P355" s="12"/>
+      <c r="C355" s="8"/>
+      <c r="H355" s="8"/>
+      <c r="M355" s="8"/>
+      <c r="P355" s="8"/>
     </row>
     <row r="356" spans="3:16">
-      <c r="C356" s="12"/>
-      <c r="H356" s="12"/>
-      <c r="M356" s="12"/>
-      <c r="P356" s="12"/>
+      <c r="C356" s="8"/>
+      <c r="H356" s="8"/>
+      <c r="M356" s="8"/>
+      <c r="P356" s="8"/>
     </row>
     <row r="357" spans="3:16">
-      <c r="C357" s="12"/>
-      <c r="H357" s="12"/>
-      <c r="M357" s="12"/>
-      <c r="P357" s="12"/>
+      <c r="C357" s="8"/>
+      <c r="H357" s="8"/>
+      <c r="M357" s="8"/>
+      <c r="P357" s="8"/>
     </row>
     <row r="358" spans="3:16">
-      <c r="C358" s="12"/>
-      <c r="H358" s="12"/>
-      <c r="M358" s="12"/>
-      <c r="P358" s="12"/>
+      <c r="C358" s="8"/>
+      <c r="H358" s="8"/>
+      <c r="M358" s="8"/>
+      <c r="P358" s="8"/>
     </row>
     <row r="359" spans="3:16">
-      <c r="C359" s="12"/>
-      <c r="H359" s="12"/>
-      <c r="M359" s="12"/>
-      <c r="P359" s="12"/>
+      <c r="C359" s="8"/>
+      <c r="H359" s="8"/>
+      <c r="M359" s="8"/>
+      <c r="P359" s="8"/>
     </row>
     <row r="360" spans="3:16">
-      <c r="C360" s="12"/>
-      <c r="H360" s="12"/>
-      <c r="M360" s="12"/>
-      <c r="P360" s="12"/>
+      <c r="C360" s="8"/>
+      <c r="H360" s="8"/>
+      <c r="M360" s="8"/>
+      <c r="P360" s="8"/>
     </row>
     <row r="361" spans="3:16">
-      <c r="C361" s="12"/>
-      <c r="H361" s="12"/>
-      <c r="M361" s="12"/>
-      <c r="P361" s="12"/>
+      <c r="C361" s="8"/>
+      <c r="H361" s="8"/>
+      <c r="M361" s="8"/>
+      <c r="P361" s="8"/>
     </row>
     <row r="362" spans="3:16">
-      <c r="C362" s="12"/>
-      <c r="H362" s="12"/>
-      <c r="M362" s="12"/>
-      <c r="P362" s="12"/>
+      <c r="C362" s="8"/>
+      <c r="H362" s="8"/>
+      <c r="M362" s="8"/>
+      <c r="P362" s="8"/>
     </row>
     <row r="363" spans="3:16">
-      <c r="C363" s="12"/>
-      <c r="H363" s="12"/>
-      <c r="M363" s="12"/>
-      <c r="P363" s="12"/>
+      <c r="C363" s="8"/>
+      <c r="H363" s="8"/>
+      <c r="M363" s="8"/>
+      <c r="P363" s="8"/>
     </row>
     <row r="364" spans="3:16">
-      <c r="C364" s="12"/>
-      <c r="H364" s="12"/>
-      <c r="M364" s="12"/>
-      <c r="P364" s="12"/>
+      <c r="C364" s="8"/>
+      <c r="H364" s="8"/>
+      <c r="M364" s="8"/>
+      <c r="P364" s="8"/>
     </row>
     <row r="365" spans="3:16">
-      <c r="C365" s="12"/>
-      <c r="H365" s="12"/>
-      <c r="M365" s="12"/>
-      <c r="P365" s="12"/>
+      <c r="C365" s="8"/>
+      <c r="H365" s="8"/>
+      <c r="M365" s="8"/>
+      <c r="P365" s="8"/>
     </row>
     <row r="366" spans="3:16">
-      <c r="C366" s="12"/>
-      <c r="H366" s="12"/>
-      <c r="M366" s="12"/>
-      <c r="P366" s="12"/>
+      <c r="C366" s="8"/>
+      <c r="H366" s="8"/>
+      <c r="M366" s="8"/>
+      <c r="P366" s="8"/>
     </row>
     <row r="367" spans="3:16">
-      <c r="C367" s="12"/>
-      <c r="H367" s="12"/>
-      <c r="M367" s="12"/>
-      <c r="P367" s="12"/>
+      <c r="C367" s="8"/>
+      <c r="H367" s="8"/>
+      <c r="M367" s="8"/>
+      <c r="P367" s="8"/>
     </row>
     <row r="368" spans="3:16">
-      <c r="C368" s="12"/>
-      <c r="H368" s="12"/>
-      <c r="M368" s="12"/>
-      <c r="P368" s="12"/>
+      <c r="C368" s="8"/>
+      <c r="H368" s="8"/>
+      <c r="M368" s="8"/>
+      <c r="P368" s="8"/>
     </row>
     <row r="369" spans="3:16">
-      <c r="C369" s="12"/>
-      <c r="H369" s="12"/>
-      <c r="M369" s="12"/>
-      <c r="P369" s="12"/>
+      <c r="C369" s="8"/>
+      <c r="H369" s="8"/>
+      <c r="M369" s="8"/>
+      <c r="P369" s="8"/>
     </row>
     <row r="370" spans="3:16">
-      <c r="C370" s="12"/>
-      <c r="H370" s="12"/>
-      <c r="M370" s="12"/>
-      <c r="P370" s="12"/>
+      <c r="C370" s="8"/>
+      <c r="H370" s="8"/>
+      <c r="M370" s="8"/>
+      <c r="P370" s="8"/>
     </row>
     <row r="371" spans="3:16">
-      <c r="C371" s="12"/>
-      <c r="H371" s="12"/>
-      <c r="M371" s="12"/>
-      <c r="P371" s="12"/>
+      <c r="C371" s="8"/>
+      <c r="H371" s="8"/>
+      <c r="M371" s="8"/>
+      <c r="P371" s="8"/>
     </row>
     <row r="372" spans="3:16">
-      <c r="C372" s="12"/>
-      <c r="H372" s="12"/>
-      <c r="M372" s="12"/>
-      <c r="P372" s="12"/>
+      <c r="C372" s="8"/>
+      <c r="H372" s="8"/>
+      <c r="M372" s="8"/>
+      <c r="P372" s="8"/>
     </row>
     <row r="373" spans="3:16">
-      <c r="C373" s="12"/>
-      <c r="H373" s="12"/>
-      <c r="M373" s="12"/>
-      <c r="P373" s="12"/>
+      <c r="C373" s="8"/>
+      <c r="H373" s="8"/>
+      <c r="M373" s="8"/>
+      <c r="P373" s="8"/>
     </row>
     <row r="374" spans="3:16">
-      <c r="C374" s="12"/>
-      <c r="H374" s="12"/>
-      <c r="M374" s="12"/>
-      <c r="P374" s="12"/>
+      <c r="C374" s="8"/>
+      <c r="H374" s="8"/>
+      <c r="M374" s="8"/>
+      <c r="P374" s="8"/>
     </row>
     <row r="375" spans="3:16">
-      <c r="C375" s="12"/>
-      <c r="H375" s="12"/>
-      <c r="M375" s="12"/>
-      <c r="P375" s="12"/>
+      <c r="C375" s="8"/>
+      <c r="H375" s="8"/>
+      <c r="M375" s="8"/>
+      <c r="P375" s="8"/>
     </row>
     <row r="376" spans="3:16">
-      <c r="C376" s="12"/>
-      <c r="H376" s="12"/>
-      <c r="M376" s="12"/>
-      <c r="P376" s="12"/>
+      <c r="C376" s="8"/>
+      <c r="H376" s="8"/>
+      <c r="M376" s="8"/>
+      <c r="P376" s="8"/>
     </row>
     <row r="377" spans="3:16">
-      <c r="C377" s="12"/>
-      <c r="H377" s="12"/>
-      <c r="M377" s="12"/>
-      <c r="P377" s="12"/>
+      <c r="C377" s="8"/>
+      <c r="H377" s="8"/>
+      <c r="M377" s="8"/>
+      <c r="P377" s="8"/>
     </row>
     <row r="378" spans="3:16">
-      <c r="C378" s="12"/>
-      <c r="H378" s="12"/>
-      <c r="M378" s="12"/>
-      <c r="P378" s="12"/>
+      <c r="C378" s="8"/>
+      <c r="H378" s="8"/>
+      <c r="M378" s="8"/>
+      <c r="P378" s="8"/>
     </row>
     <row r="379" spans="3:16">
-      <c r="C379" s="12"/>
-      <c r="H379" s="12"/>
-      <c r="M379" s="12"/>
-      <c r="P379" s="12"/>
+      <c r="C379" s="8"/>
+      <c r="H379" s="8"/>
+      <c r="M379" s="8"/>
+      <c r="P379" s="8"/>
     </row>
     <row r="380" spans="3:16">
-      <c r="C380" s="12"/>
-      <c r="H380" s="12"/>
-      <c r="M380" s="12"/>
-      <c r="P380" s="12"/>
+      <c r="C380" s="8"/>
+      <c r="H380" s="8"/>
+      <c r="M380" s="8"/>
+      <c r="P380" s="8"/>
     </row>
     <row r="381" spans="3:16">
-      <c r="C381" s="12"/>
-      <c r="H381" s="12"/>
-      <c r="M381" s="12"/>
-      <c r="P381" s="12"/>
+      <c r="C381" s="8"/>
+      <c r="H381" s="8"/>
+      <c r="M381" s="8"/>
+      <c r="P381" s="8"/>
     </row>
     <row r="382" spans="3:16">
-      <c r="C382" s="12"/>
-      <c r="H382" s="12"/>
-      <c r="M382" s="12"/>
-      <c r="P382" s="12"/>
+      <c r="C382" s="8"/>
+      <c r="H382" s="8"/>
+      <c r="M382" s="8"/>
+      <c r="P382" s="8"/>
     </row>
     <row r="383" spans="3:16">
-      <c r="C383" s="12"/>
-      <c r="H383" s="12"/>
-      <c r="M383" s="12"/>
-      <c r="P383" s="12"/>
+      <c r="C383" s="8"/>
+      <c r="H383" s="8"/>
+      <c r="M383" s="8"/>
+      <c r="P383" s="8"/>
     </row>
     <row r="384" spans="3:16">
-      <c r="C384" s="12"/>
-      <c r="H384" s="12"/>
-      <c r="M384" s="12"/>
-      <c r="P384" s="12"/>
+      <c r="C384" s="8"/>
+      <c r="H384" s="8"/>
+      <c r="M384" s="8"/>
+      <c r="P384" s="8"/>
     </row>
     <row r="385" spans="3:16">
-      <c r="C385" s="12"/>
-      <c r="H385" s="12"/>
-      <c r="M385" s="12"/>
-      <c r="P385" s="12"/>
+      <c r="C385" s="8"/>
+      <c r="H385" s="8"/>
+      <c r="M385" s="8"/>
+      <c r="P385" s="8"/>
     </row>
     <row r="386" spans="3:16">
-      <c r="C386" s="12"/>
-      <c r="H386" s="12"/>
-      <c r="M386" s="12"/>
-      <c r="P386" s="12"/>
+      <c r="C386" s="8"/>
+      <c r="H386" s="8"/>
+      <c r="M386" s="8"/>
+      <c r="P386" s="8"/>
     </row>
     <row r="387" spans="3:16">
-      <c r="C387" s="12"/>
-      <c r="H387" s="12"/>
-      <c r="M387" s="12"/>
-      <c r="P387" s="12"/>
+      <c r="C387" s="8"/>
+      <c r="H387" s="8"/>
+      <c r="M387" s="8"/>
+      <c r="P387" s="8"/>
     </row>
     <row r="388" spans="3:16">
-      <c r="C388" s="12"/>
-      <c r="H388" s="12"/>
-      <c r="M388" s="12"/>
-      <c r="P388" s="12"/>
+      <c r="C388" s="8"/>
+      <c r="H388" s="8"/>
+      <c r="M388" s="8"/>
+      <c r="P388" s="8"/>
     </row>
     <row r="389" spans="3:16">
-      <c r="C389" s="12"/>
-      <c r="H389" s="12"/>
-      <c r="M389" s="12"/>
-      <c r="P389" s="12"/>
+      <c r="C389" s="8"/>
+      <c r="H389" s="8"/>
+      <c r="M389" s="8"/>
+      <c r="P389" s="8"/>
     </row>
     <row r="425" spans="3:16">
-      <c r="C425" s="12"/>
-      <c r="H425" s="12"/>
-      <c r="M425" s="12"/>
-      <c r="P425" s="12"/>
+      <c r="C425" s="8"/>
+      <c r="H425" s="8"/>
+      <c r="M425" s="8"/>
+      <c r="P425" s="8"/>
     </row>
     <row r="426" spans="3:16">
-      <c r="C426" s="14"/>
-      <c r="H426" s="14"/>
-      <c r="M426" s="14"/>
-      <c r="P426" s="14"/>
+      <c r="C426" s="23"/>
+      <c r="H426" s="23"/>
+      <c r="M426" s="23"/>
+      <c r="P426" s="23"/>
     </row>
     <row r="428" spans="3:16">
-      <c r="C428" s="12"/>
-      <c r="H428" s="12"/>
-      <c r="M428" s="12"/>
-      <c r="P428" s="12"/>
+      <c r="C428" s="8"/>
+      <c r="H428" s="8"/>
+      <c r="M428" s="8"/>
+      <c r="P428" s="8"/>
     </row>
     <row r="480" spans="3:16">
-      <c r="C480" s="15"/>
-      <c r="H480" s="15"/>
-      <c r="M480" s="15"/>
-      <c r="P480" s="15"/>
+      <c r="C480" s="24"/>
+      <c r="H480" s="24"/>
+      <c r="M480" s="24"/>
+      <c r="P480" s="24"/>
     </row>
     <row r="481" spans="3:16">
-      <c r="C481" s="14"/>
-      <c r="H481" s="14"/>
-      <c r="M481" s="14"/>
-      <c r="P481" s="14"/>
+      <c r="C481" s="23"/>
+      <c r="H481" s="23"/>
+      <c r="M481" s="23"/>
+      <c r="P481" s="23"/>
     </row>
     <row r="482" spans="3:16">
-      <c r="C482" s="15"/>
-      <c r="H482" s="15"/>
-      <c r="M482" s="15"/>
-      <c r="P482" s="15"/>
+      <c r="C482" s="24"/>
+      <c r="H482" s="24"/>
+      <c r="M482" s="24"/>
+      <c r="P482" s="24"/>
     </row>
     <row r="483" spans="3:16">
-      <c r="C483" s="12"/>
-      <c r="H483" s="12"/>
-      <c r="M483" s="12"/>
-      <c r="P483" s="12"/>
+      <c r="C483" s="8"/>
+      <c r="H483" s="8"/>
+      <c r="M483" s="8"/>
+      <c r="P483" s="8"/>
     </row>
     <row r="692" spans="3:16">
-      <c r="C692" s="12"/>
-      <c r="H692" s="12"/>
-      <c r="M692" s="12"/>
-      <c r="P692" s="12"/>
+      <c r="C692" s="8"/>
+      <c r="H692" s="8"/>
+      <c r="M692" s="8"/>
+      <c r="P692" s="8"/>
     </row>
     <row r="730" spans="3:16">
-      <c r="C730" s="12"/>
-      <c r="H730" s="12"/>
-      <c r="M730" s="12"/>
-      <c r="P730" s="12"/>
+      <c r="C730" s="8"/>
+      <c r="H730" s="8"/>
+      <c r="M730" s="8"/>
+      <c r="P730" s="8"/>
     </row>
     <row r="731" spans="3:16">
-      <c r="C731" s="14"/>
-      <c r="H731" s="14"/>
-      <c r="M731" s="14"/>
-      <c r="P731" s="14"/>
+      <c r="C731" s="23"/>
+      <c r="H731" s="23"/>
+      <c r="M731" s="23"/>
+      <c r="P731" s="23"/>
     </row>
     <row r="732" spans="3:16">
-      <c r="C732" s="14"/>
-      <c r="H732" s="14"/>
-      <c r="M732" s="14"/>
-      <c r="P732" s="14"/>
+      <c r="C732" s="23"/>
+      <c r="H732" s="23"/>
+      <c r="M732" s="23"/>
+      <c r="P732" s="23"/>
     </row>
     <row r="733" spans="3:16">
-      <c r="C733" s="14"/>
-      <c r="H733" s="14"/>
-      <c r="M733" s="14"/>
-      <c r="P733" s="14"/>
+      <c r="C733" s="23"/>
+      <c r="H733" s="23"/>
+      <c r="M733" s="23"/>
+      <c r="P733" s="23"/>
     </row>
     <row r="736" spans="3:16">
-      <c r="C736" s="12"/>
-      <c r="H736" s="12"/>
-      <c r="M736" s="12"/>
-      <c r="P736" s="12"/>
+      <c r="C736" s="8"/>
+      <c r="H736" s="8"/>
+      <c r="M736" s="8"/>
+      <c r="P736" s="8"/>
     </row>
     <row r="738" spans="3:16">
-      <c r="C738" s="12"/>
-      <c r="H738" s="12"/>
-      <c r="M738" s="12"/>
-      <c r="P738" s="12"/>
+      <c r="C738" s="8"/>
+      <c r="H738" s="8"/>
+      <c r="M738" s="8"/>
+      <c r="P738" s="8"/>
     </row>
     <row r="739" spans="3:16">
-      <c r="C739" s="12"/>
-      <c r="H739" s="12"/>
-      <c r="M739" s="12"/>
-      <c r="P739" s="12"/>
+      <c r="C739" s="8"/>
+      <c r="H739" s="8"/>
+      <c r="M739" s="8"/>
+      <c r="P739" s="8"/>
     </row>
     <row r="801" spans="3:16">
-      <c r="C801" s="12"/>
-      <c r="H801" s="12"/>
-      <c r="M801" s="12"/>
-      <c r="P801" s="12"/>
+      <c r="C801" s="8"/>
+      <c r="H801" s="8"/>
+      <c r="M801" s="8"/>
+      <c r="P801" s="8"/>
     </row>
     <row r="834" spans="3:16">
-      <c r="C834" s="12"/>
-      <c r="H834" s="12"/>
-      <c r="M834" s="12"/>
-      <c r="P834" s="12"/>
+      <c r="C834" s="8"/>
+      <c r="H834" s="8"/>
+      <c r="M834" s="8"/>
+      <c r="P834" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Processes/Finance/Budgeting/Sales Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/Sales Budget Template.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Finance\Budgeting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4419FC-A006-4A1A-BF32-BDFD04E0AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,15 +160,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,158 +194,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,204 +210,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -555,251 +246,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,19 +286,19 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -855,89 +310,53 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -960,7 +379,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1003,9 +421,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -1108,6 +523,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6EB-4C63-9BB9-DACEE2ED4122}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1135,9 +555,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -1240,6 +657,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6EB-4C63-9BB9-DACEE2ED4122}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1267,9 +689,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -1372,6 +791,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6EB-4C63-9BB9-DACEE2ED4122}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1399,9 +823,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -1504,6 +925,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6EB-4C63-9BB9-DACEE2ED4122}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1531,9 +957,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
@@ -1636,6 +1059,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F6EB-4C63-9BB9-DACEE2ED4122}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1699,9 +1127,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>(Overview!$D$42:$G$42,Overview!$J$42,Overview!$N$42,Overview!$Q$42:$S$42)</c:f>
@@ -1718,7 +1143,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15</c:v>
@@ -1739,6 +1164,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F6EB-4C63-9BB9-DACEE2ED4122}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1794,6 +1224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1178865240"/>
@@ -1836,7 +1267,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1874,6 +1304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1178864912"/>
@@ -1890,25 +1321,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="852939816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1923,6 +1335,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Customer count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1951,6 +1377,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1093354912"/>
@@ -1967,7 +1394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1993,6 +1419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2022,6 +1449,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2032,519 +1460,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2558,14 +1475,20 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2076450" y="7374890"/>
-        <a:ext cx="9353550" cy="3364865"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2859,33 +1782,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S834"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="2" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="2" customWidth="1"/>
     <col min="9" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="2" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2990,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:16">
+    <row r="4" spans="2:19">
       <c r="C4" s="8"/>
       <c r="H4" s="8"/>
       <c r="M4" s="8"/>
@@ -3062,19 +1984,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="13">
+      <c r="D6" s="25">
         <v>100</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="25">
         <v>200</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="25">
         <v>3</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25">
         <v>150</v>
       </c>
       <c r="K6" s="20" t="str">
@@ -3086,28 +2008,28 @@
         <v>n/a</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="20">
         <f t="shared" ref="O6:O10" si="5">IFERROR(N6/J6-1,"n/a")</f>
         <v>-1</v>
       </c>
       <c r="P6" s="10"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
@@ -3117,28 +2039,28 @@
         <v>n/a</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="25"/>
       <c r="O7" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
@@ -3148,28 +2070,28 @@
         <v>n/a</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
@@ -3179,28 +2101,28 @@
         <v>n/a</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="20" t="str">
         <f t="shared" si="3"/>
         <v>n/a</v>
@@ -3210,17 +2132,17 @@
         <v>n/a</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="20" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="3:19">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="2:19">
       <c r="C11" s="8"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -3305,13 +2227,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="20" t="str">
         <f t="shared" ref="K13:K16" si="9">IFERROR(J13/I13-1,"n/a")</f>
         <v>n/a</v>
@@ -3321,34 +2243,34 @@
         <v>n/a</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="20" t="str">
         <f t="shared" ref="O13:O16" si="11">IFERROR(N13/J13-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P13" s="8"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25">
         <v>100</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="25">
         <v>200</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="25">
         <v>3</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="20" t="str">
         <f t="shared" si="9"/>
         <v>n/a</v>
@@ -3358,28 +2280,28 @@
         <v>-1</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20" t="str">
         <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
       <c r="P14" s="8"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="20" t="str">
         <f t="shared" si="9"/>
         <v>n/a</v>
@@ -3389,28 +2311,28 @@
         <v>n/a</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="13"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="20" t="str">
         <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
       <c r="P15" s="8"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="20" t="str">
         <f t="shared" si="9"/>
         <v>n/a</v>
@@ -3420,7 +2342,7 @@
         <v>n/a</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="13">
+      <c r="N16" s="25">
         <v>200</v>
       </c>
       <c r="O16" s="20" t="str">
@@ -3428,11 +2350,11 @@
         <v>n/a</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="3:19">
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="C17" s="8"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3517,13 +2439,13 @@
         <v>20</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="20" t="str">
         <f t="shared" ref="K19:K22" si="20">IFERROR(J19/I19-1,"n/a")</f>
         <v>n/a</v>
@@ -3533,28 +2455,28 @@
         <v>n/a</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="20" t="str">
         <f t="shared" ref="O19:O22" si="22">IFERROR(N19/J19-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="20" t="str">
         <f t="shared" si="20"/>
         <v>n/a</v>
@@ -3564,7 +2486,7 @@
         <v>n/a</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="13">
+      <c r="N20" s="25">
         <v>200</v>
       </c>
       <c r="O20" s="20" t="str">
@@ -3572,26 +2494,26 @@
         <v>n/a</v>
       </c>
       <c r="P20" s="8"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13">
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25">
         <v>200</v>
       </c>
-      <c r="S20" s="13"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25">
         <v>200</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="20" t="str">
         <f t="shared" si="20"/>
         <v>n/a</v>
@@ -3601,30 +2523,30 @@
         <v>n/a</v>
       </c>
       <c r="M21" s="8"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="20" t="str">
         <f t="shared" si="22"/>
         <v>n/a</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>200</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="20" t="str">
         <f t="shared" si="20"/>
         <v>n/a</v>
@@ -3634,17 +2556,17 @@
         <v>n/a</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="20" t="str">
         <f t="shared" si="22"/>
         <v>n/a</v>
       </c>
       <c r="P22" s="8"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="3:19">
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -3729,13 +2651,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="20" t="str">
         <f t="shared" ref="K25:K28" si="31">IFERROR(J25/I25-1,"n/a")</f>
         <v>n/a</v>
@@ -3745,30 +2667,30 @@
         <v>n/a</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="20" t="str">
         <f t="shared" ref="O25:O28" si="33">IFERROR(N25/J25-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25">
         <v>200</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="20" t="str">
         <f t="shared" si="31"/>
         <v>n/a</v>
@@ -3778,7 +2700,7 @@
         <v>n/a</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="13">
+      <c r="N26" s="25">
         <v>200</v>
       </c>
       <c r="O26" s="20" t="str">
@@ -3786,11 +2708,11 @@
         <v>n/a</v>
       </c>
       <c r="P26" s="8"/>
-      <c r="Q26" s="13">
+      <c r="Q26" s="25">
         <v>200</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13">
+      <c r="R26" s="25"/>
+      <c r="S26" s="25">
         <v>200</v>
       </c>
     </row>
@@ -3799,15 +2721,15 @@
         <v>27</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25">
         <v>200</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="20" t="str">
         <f t="shared" si="31"/>
         <v>n/a</v>
@@ -3817,30 +2739,30 @@
         <v>-1</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="20" t="str">
         <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
       <c r="P27" s="8"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="13">
+      <c r="I28" s="25">
         <v>200</v>
       </c>
-      <c r="J28" s="13"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="20">
         <f t="shared" si="31"/>
         <v>-1</v>
@@ -3850,17 +2772,17 @@
         <v>n/a</v>
       </c>
       <c r="M28" s="8"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="20" t="str">
         <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
       <c r="P28" s="8"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-    </row>
-    <row r="29" spans="3:19">
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="C29" s="8"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -3945,13 +2867,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="20" t="str">
         <f t="shared" ref="K31:K37" si="37">IFERROR(J31/I31-1,"n/a")</f>
         <v>n/a</v>
@@ -3961,30 +2883,30 @@
         <v>n/a</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="13"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="20" t="str">
         <f t="shared" ref="O31:O37" si="39">IFERROR(N31/J31-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P31" s="8"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
     </row>
     <row r="32" spans="2:19">
       <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="13">
+      <c r="D32" s="25">
         <v>200</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
@@ -3994,30 +2916,30 @@
         <v>n/a</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
       <c r="P32" s="8"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="13">
+      <c r="I33" s="25">
         <v>200</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="25">
         <v>200</v>
       </c>
       <c r="K33" s="20">
@@ -4029,7 +2951,7 @@
         <v>n/a</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="13">
+      <c r="N33" s="25">
         <v>200</v>
       </c>
       <c r="O33" s="20">
@@ -4037,22 +2959,22 @@
         <v>0</v>
       </c>
       <c r="P33" s="8"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
@@ -4062,30 +2984,30 @@
         <v>n/a</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="13"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
       <c r="P34" s="8"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13">
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25">
         <v>200</v>
       </c>
-      <c r="S34" s="13"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
@@ -4095,15 +3017,15 @@
         <v>n/a</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="13"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
       <c r="P35" s="8"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13">
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25">
         <v>200</v>
       </c>
     </row>
@@ -4112,15 +3034,15 @@
         <v>35</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25">
         <v>200</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
@@ -4130,28 +3052,28 @@
         <v>n/a</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="13"/>
+      <c r="N36" s="25"/>
       <c r="O36" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
       <c r="P36" s="8"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
     </row>
     <row r="37" spans="2:19">
       <c r="B37" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="20" t="str">
         <f t="shared" si="37"/>
         <v>n/a</v>
@@ -4161,17 +3083,17 @@
         <v>n/a</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="13"/>
+      <c r="N37" s="25"/>
       <c r="O37" s="20" t="str">
         <f t="shared" si="39"/>
         <v>n/a</v>
       </c>
       <c r="P37" s="8"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-    </row>
-    <row r="38" spans="3:19">
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+    </row>
+    <row r="38" spans="2:19">
       <c r="C38" s="8"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -4226,7 +3148,7 @@
       </c>
       <c r="L39" s="22">
         <f t="shared" ref="L39" si="43">IFERROR(J39/G39-1,"n/a")</f>
-        <v>0.724137931034483</v>
+        <v>0.72413793103448265</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="15">
@@ -4235,7 +3157,7 @@
       </c>
       <c r="O39" s="22">
         <f>IFERROR(N39/J39-1,"n/a")</f>
-        <v>1.28571428571429</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="15">
@@ -4251,13 +3173,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="2:19">
       <c r="C40" s="8"/>
       <c r="H40" s="8"/>
       <c r="M40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="3:16">
+    <row r="41" spans="2:19">
       <c r="C41" s="8"/>
       <c r="H41" s="8"/>
       <c r="M41" s="8"/>
@@ -4268,49 +3190,49 @@
         <v>38</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="1">
+      <c r="D42" s="26">
         <v>20</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="26">
         <v>15</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="26">
         <v>25</v>
       </c>
-      <c r="G42" s="1">
-        <v>2</v>
+      <c r="G42" s="26">
+        <v>10</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="1">
-        <v>3</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="I42" s="26">
+        <v>15</v>
+      </c>
+      <c r="J42" s="26">
         <v>15</v>
       </c>
       <c r="K42" s="20">
         <f t="shared" ref="K42:K43" si="45">IFERROR(J42/I42-1,"n/a")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ref="L42:L43" si="46">IFERROR(J42/G42-1,"n/a")</f>
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="M42" s="8"/>
-      <c r="N42" s="1">
+      <c r="N42" s="26">
         <v>18</v>
       </c>
       <c r="O42" s="20">
         <f t="shared" ref="O42:O43" si="47">IFERROR(N42/J42-1,"n/a")</f>
-        <v>0.2</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="P42" s="8"/>
-      <c r="Q42" s="1">
+      <c r="Q42" s="26">
         <v>15</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="26">
         <v>17</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="26">
         <v>15</v>
       </c>
     </row>
@@ -4333,49 +3255,49 @@
       </c>
       <c r="G43" s="16">
         <f t="shared" si="48"/>
-        <v>101.5</v>
+        <v>20.3</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="16">
         <f t="shared" ref="I43:J43" si="49">+I39/I42</f>
-        <v>133.333333333333</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="49"/>
-        <v>23.3333333333333</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="K43" s="20">
         <f t="shared" si="45"/>
-        <v>-0.825</v>
+        <v>-0.12500000000000011</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" si="46"/>
-        <v>-0.770114942528736</v>
+        <v>0.14942528735632177</v>
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="16">
         <f>+N39/N42</f>
-        <v>44.4444444444444</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="O43" s="20">
         <f t="shared" si="47"/>
-        <v>0.904761904761905</v>
+        <v>0.90476190476190488</v>
       </c>
       <c r="P43" s="17"/>
       <c r="Q43" s="16">
         <f t="shared" ref="Q43:S43" si="50">+Q39/Q42</f>
-        <v>13.3333333333333</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="R43" s="16">
         <f t="shared" si="50"/>
-        <v>23.5294117647059</v>
+        <v>23.529411764705884</v>
       </c>
       <c r="S43" s="16">
         <f t="shared" si="50"/>
-        <v>26.6666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16">
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
       <c r="C44" s="8"/>
       <c r="H44" s="8"/>
       <c r="M44" s="8"/>
@@ -4386,65 +3308,65 @@
         <v>40</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="1">
+      <c r="D45" s="26">
+        <v>4</v>
+      </c>
+      <c r="E45" s="26">
+        <v>5</v>
+      </c>
+      <c r="F45" s="26">
+        <v>5</v>
+      </c>
+      <c r="G45" s="26">
+        <v>4</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="26">
+        <v>5</v>
+      </c>
+      <c r="J45" s="26">
+        <v>5</v>
+      </c>
+      <c r="K45" s="20">
+        <f t="shared" ref="K45" si="51">IFERROR(J45/I45-1,"n/a")</f>
         <v>0</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="20" t="str">
-        <f t="shared" ref="K45" si="51">IFERROR(J45/I45-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="L45" s="20" t="str">
+      <c r="L45" s="20">
         <f t="shared" ref="L45" si="52">IFERROR(J45/G45-1,"n/a")</f>
-        <v>n/a</v>
+        <v>0.25</v>
       </c>
       <c r="M45" s="8"/>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="20" t="str">
+      <c r="N45" s="26">
+        <v>6</v>
+      </c>
+      <c r="O45" s="20">
         <f t="shared" ref="O45" si="53">IFERROR(N45/J45-1,"n/a")</f>
-        <v>n/a</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="P45" s="8"/>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1">
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16">
+      <c r="Q45" s="26">
+        <v>7</v>
+      </c>
+      <c r="R45" s="26">
+        <v>8</v>
+      </c>
+      <c r="S45" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
       <c r="C46" s="8"/>
       <c r="H46" s="8"/>
       <c r="M46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="3:16">
+    <row r="47" spans="2:19">
       <c r="C47" s="8"/>
       <c r="H47" s="8"/>
       <c r="M47" s="8"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="2:19">
       <c r="C48" s="8"/>
       <c r="H48" s="8"/>
       <c r="M48" s="8"/>
@@ -6565,7 +5487,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Processes/Finance/Budgeting/Sales Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/Sales Budget Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Finance\Budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4419FC-A006-4A1A-BF32-BDFD04E0AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB98F1-4161-4701-BD05-7722F752CC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Sales budget</t>
   </si>
@@ -163,7 +163,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -286,19 +286,19 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -423,9 +423,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
+              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$U$3)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -452,6 +452,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -482,6 +488,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>2026</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2028</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -489,10 +501,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Overview!$D$5:$G$5,Overview!$J$5,Overview!$N$5,Overview!$Q$5:$S$5)</c:f>
+              <c:f>(Overview!$D$5:$G$5,Overview!$J$5,Overview!$N$5,Overview!$Q$5:$U$5)</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -518,6 +530,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -557,9 +575,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
+              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$U$3)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -586,6 +604,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -616,6 +640,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>2026</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2028</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -623,10 +653,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Overview!$D$12:$G$12,Overview!$J$12,Overview!$N$12,Overview!$Q$12:$S$12)</c:f>
+              <c:f>(Overview!$D$12:$G$12,Overview!$J$12,Overview!$N$12,Overview!$Q$12:$U$12)</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -652,6 +682,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -691,9 +727,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
+              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$U$3)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -720,6 +756,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -750,6 +792,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>2026</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2028</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -757,10 +805,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Overview!$D$18:$G$18,Overview!$J$18,Overview!$N$18,Overview!$Q$18:$S$18)</c:f>
+              <c:f>(Overview!$D$18:$G$18,Overview!$J$18,Overview!$N$18,Overview!$Q$18:$U$18)</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -786,6 +834,12 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -825,9 +879,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
+              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$U$3)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -854,6 +908,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -884,6 +944,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>2026</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2028</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -891,10 +957,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Overview!$D$24:$G$24,Overview!$J$24,Overview!$N$24,Overview!$Q$24:$S$24)</c:f>
+              <c:f>(Overview!$D$24:$G$24,Overview!$J$24,Overview!$N$24,Overview!$Q$24:$U$24)</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -920,6 +986,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -959,9 +1031,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$S$3)</c:f>
+              <c:f>(Overview!$D$2:$G$3,Overview!$J$2:$J$3,Overview!$N$2:$N$3,Overview!$Q$2:$U$3)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -988,6 +1060,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1018,6 +1096,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>2026</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2028</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1025,10 +1109,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Overview!$D$30:$G$30,Overview!$J$30,Overview!$N$30,Overview!$Q$30:$S$30)</c:f>
+              <c:f>(Overview!$D$30:$G$30,Overview!$J$30,Overview!$N$30,Overview!$Q$30:$U$30)</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -1054,6 +1138,12 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1129,10 +1219,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Overview!$D$42:$G$42,Overview!$J$42,Overview!$N$42,Overview!$Q$42:$S$42)</c:f>
+              <c:f>(Overview!$D$42:$G$42,Overview!$J$42,Overview!$N$42,Overview!$Q$42:$U$42)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -1158,6 +1248,12 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1788,13 +1884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S834"/>
+  <dimension ref="B2:U834"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1811,7 +1907,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:21">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1867,8 +1963,16 @@
         <f>+R2+1</f>
         <v>2026</v>
       </c>
-    </row>
-    <row r="3" spans="2:19">
+      <c r="T2" s="5">
+        <f>+S2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="U2" s="5">
+        <f>+T2+1</f>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1911,14 +2015,20 @@
       <c r="S3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:19">
+      <c r="T3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
       <c r="C4" s="8"/>
       <c r="H4" s="8"/>
       <c r="M4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:21">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1978,8 +2088,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="T5" s="11">
+        <f t="shared" ref="T5:U5" si="3">+SUM(T6:T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -2000,25 +2118,27 @@
         <v>150</v>
       </c>
       <c r="K6" s="20" t="str">
-        <f t="shared" ref="K6:K10" si="3">IFERROR(J6/I6-1,"n/a")</f>
+        <f t="shared" ref="K6:K10" si="4">IFERROR(J6/I6-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="L6" s="20" t="str">
-        <f t="shared" ref="L6:L10" si="4">IFERROR(J6/G6-1,"n/a")</f>
+        <f t="shared" ref="L6:L10" si="5">IFERROR(J6/G6-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="25"/>
       <c r="O6" s="20">
-        <f t="shared" ref="O6:O10" si="5">IFERROR(N6/J6-1,"n/a")</f>
+        <f t="shared" ref="O6:O10" si="6">IFERROR(N6/J6-1,"n/a")</f>
         <v>-1</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
@@ -2031,25 +2151,27 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
       <c r="L7" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="25"/>
       <c r="O7" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n/a</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
@@ -2062,25 +2184,27 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
       <c r="L8" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="25"/>
       <c r="O8" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n/a</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="2:19">
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
@@ -2093,25 +2217,27 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
       <c r="L9" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="25"/>
       <c r="O9" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n/a</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="2:19">
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2124,25 +2250,27 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
       <c r="L10" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="25"/>
       <c r="O10" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n/a</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="2:19">
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+    </row>
+    <row r="11" spans="2:21">
       <c r="C11" s="8"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2160,8 +2288,10 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="2:19">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
@@ -2171,24 +2301,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" ref="E12:G12" si="6">+SUM(E13:E17)</f>
+        <f t="shared" ref="E12:G12" si="7">+SUM(E13:E17)</f>
         <v>100</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="11">
-        <f t="shared" ref="I12:J12" si="7">+SUM(I13:I17)</f>
+        <f t="shared" ref="I12:J12" si="8">+SUM(I13:I17)</f>
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K12" s="19" t="str">
@@ -2210,19 +2340,27 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="11">
-        <f t="shared" ref="Q12:S12" si="8">+SUM(Q13:Q17)</f>
+        <f t="shared" ref="Q12:S12" si="9">+SUM(Q13:Q17)</f>
         <v>0</v>
       </c>
       <c r="R12" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S12" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:19">
+      <c r="T12" s="11">
+        <f t="shared" ref="T12:U12" si="10">+SUM(T13:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2235,25 +2373,27 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="20" t="str">
-        <f t="shared" ref="K13:K16" si="9">IFERROR(J13/I13-1,"n/a")</f>
+        <f t="shared" ref="K13:K16" si="11">IFERROR(J13/I13-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="L13" s="20" t="str">
-        <f t="shared" ref="L13:L16" si="10">IFERROR(J13/G13-1,"n/a")</f>
+        <f t="shared" ref="L13:L16" si="12">IFERROR(J13/G13-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="25"/>
       <c r="O13" s="20" t="str">
-        <f t="shared" ref="O13:O16" si="11">IFERROR(N13/J13-1,"n/a")</f>
+        <f t="shared" ref="O13:O16" si="13">IFERROR(N13/J13-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="2:19">
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -2272,25 +2412,27 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
       <c r="L14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="25"/>
       <c r="O14" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="2:19">
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
@@ -2303,25 +2445,27 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
       <c r="L15" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="25"/>
       <c r="O15" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="2:19">
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -2334,11 +2478,11 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
       <c r="L16" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
       <c r="M16" s="8"/>
@@ -2346,15 +2490,17 @@
         <v>200</v>
       </c>
       <c r="O16" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="2:19">
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="C17" s="8"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2372,8 +2518,10 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
@@ -2383,24 +2531,24 @@
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" ref="E18" si="12">+SUM(E19:E23)</f>
+        <f t="shared" ref="E18" si="14">+SUM(E19:E23)</f>
         <v>200</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" ref="F18" si="13">+SUM(F19:F23)</f>
+        <f t="shared" ref="F18" si="15">+SUM(F19:F23)</f>
         <v>200</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" ref="G18" si="14">+SUM(G19:G23)</f>
+        <f t="shared" ref="G18" si="16">+SUM(G19:G23)</f>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
-        <f t="shared" ref="I18" si="15">+SUM(I19:I23)</f>
+        <f t="shared" ref="I18" si="17">+SUM(I19:I23)</f>
         <v>0</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" ref="J18" si="16">+SUM(J19:J23)</f>
+        <f t="shared" ref="J18" si="18">+SUM(J19:J23)</f>
         <v>0</v>
       </c>
       <c r="K18" s="19" t="str">
@@ -2422,19 +2570,27 @@
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="11">
-        <f t="shared" ref="Q18" si="17">+SUM(Q19:Q23)</f>
+        <f t="shared" ref="Q18" si="19">+SUM(Q19:Q23)</f>
         <v>0</v>
       </c>
       <c r="R18" s="11">
-        <f t="shared" ref="R18" si="18">+SUM(R19:R23)</f>
+        <f t="shared" ref="R18" si="20">+SUM(R19:R23)</f>
         <v>200</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" ref="S18" si="19">+SUM(S19:S23)</f>
+        <f t="shared" ref="S18:T18" si="21">+SUM(S19:S23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="T18" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" ref="U18" si="22">+SUM(U19:U23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2447,25 +2603,27 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="20" t="str">
-        <f t="shared" ref="K19:K22" si="20">IFERROR(J19/I19-1,"n/a")</f>
+        <f t="shared" ref="K19:K22" si="23">IFERROR(J19/I19-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="L19" s="20" t="str">
-        <f t="shared" ref="L19:L22" si="21">IFERROR(J19/G19-1,"n/a")</f>
+        <f t="shared" ref="L19:L22" si="24">IFERROR(J19/G19-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="25"/>
       <c r="O19" s="20" t="str">
-        <f t="shared" ref="O19:O22" si="22">IFERROR(N19/J19-1,"n/a")</f>
+        <f t="shared" ref="O19:O22" si="25">IFERROR(N19/J19-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="2:19">
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -2478,11 +2636,11 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>n/a</v>
       </c>
       <c r="L20" s="20" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="M20" s="8"/>
@@ -2490,7 +2648,7 @@
         <v>200</v>
       </c>
       <c r="O20" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="P20" s="8"/>
@@ -2499,8 +2657,10 @@
         <v>200</v>
       </c>
       <c r="S20" s="25"/>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
@@ -2515,25 +2675,27 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>n/a</v>
       </c>
       <c r="L21" s="20" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="25"/>
       <c r="O21" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -2548,25 +2710,27 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>n/a</v>
       </c>
       <c r="L22" s="20" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="25"/>
       <c r="O22" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -2584,8 +2748,10 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -2595,24 +2761,24 @@
         <v>0</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24" si="23">+SUM(E25:E29)</f>
+        <f t="shared" ref="E24" si="26">+SUM(E25:E29)</f>
         <v>200</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" ref="F24" si="24">+SUM(F25:F29)</f>
+        <f t="shared" ref="F24" si="27">+SUM(F25:F29)</f>
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="25">+SUM(G25:G29)</f>
+        <f t="shared" ref="G24" si="28">+SUM(G25:G29)</f>
         <v>200</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="26">+SUM(I25:I29)</f>
+        <f t="shared" ref="I24" si="29">+SUM(I25:I29)</f>
         <v>200</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="27">+SUM(J25:J29)</f>
+        <f t="shared" ref="J24" si="30">+SUM(J25:J29)</f>
         <v>0</v>
       </c>
       <c r="K24" s="19">
@@ -2634,19 +2800,27 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="11">
-        <f t="shared" ref="Q24" si="28">+SUM(Q25:Q29)</f>
+        <f t="shared" ref="Q24" si="31">+SUM(Q25:Q29)</f>
         <v>200</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" ref="R24" si="29">+SUM(R25:R29)</f>
+        <f t="shared" ref="R24" si="32">+SUM(R25:R29)</f>
         <v>0</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24" si="30">+SUM(S25:S29)</f>
+        <f t="shared" ref="S24:T24" si="33">+SUM(S25:S29)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="T24" s="11">
+        <f t="shared" si="33"/>
+        <v>200</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" ref="U24" si="34">+SUM(U25:U29)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="12" t="s">
         <v>25</v>
       </c>
@@ -2659,25 +2833,27 @@
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="20" t="str">
-        <f t="shared" ref="K25:K28" si="31">IFERROR(J25/I25-1,"n/a")</f>
+        <f t="shared" ref="K25:K28" si="35">IFERROR(J25/I25-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="L25" s="20" t="str">
-        <f t="shared" ref="L25:L28" si="32">IFERROR(J25/G25-1,"n/a")</f>
+        <f t="shared" ref="L25:L28" si="36">IFERROR(J25/G25-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="25"/>
       <c r="O25" s="20" t="str">
-        <f t="shared" ref="O25:O28" si="33">IFERROR(N25/J25-1,"n/a")</f>
+        <f t="shared" ref="O25:O28" si="37">IFERROR(N25/J25-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
@@ -2692,11 +2868,11 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>n/a</v>
       </c>
       <c r="L26" s="20" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="M26" s="8"/>
@@ -2704,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="O26" s="20" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
       <c r="P26" s="8"/>
@@ -2715,8 +2891,14 @@
       <c r="S26" s="25">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="T26" s="25">
+        <v>200</v>
+      </c>
+      <c r="U26" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="12" t="s">
         <v>27</v>
       </c>
@@ -2731,25 +2913,27 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>n/a</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="25"/>
       <c r="O27" s="20" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
-    </row>
-    <row r="28" spans="2:19">
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
@@ -2764,25 +2948,27 @@
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="L28" s="20" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="25"/>
       <c r="O28" s="20" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
-    </row>
-    <row r="29" spans="2:19">
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="C29" s="8"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -2800,8 +2986,10 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-    </row>
-    <row r="30" spans="2:19">
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" s="9" t="s">
         <v>29</v>
       </c>
@@ -2811,24 +2999,24 @@
         <v>200</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" ref="E30:G30" si="34">+SUM(E31:E38)</f>
+        <f t="shared" ref="E30:G30" si="38">+SUM(E31:E38)</f>
         <v>200</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="11">
-        <f t="shared" ref="I30:J30" si="35">+SUM(I31:I38)</f>
+        <f t="shared" ref="I30:J30" si="39">+SUM(I31:I38)</f>
         <v>200</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>200</v>
       </c>
       <c r="K30" s="19">
@@ -2850,19 +3038,27 @@
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="11">
-        <f t="shared" ref="Q30:S30" si="36">+SUM(Q31:Q38)</f>
+        <f t="shared" ref="Q30:S30" si="40">+SUM(Q31:Q38)</f>
         <v>0</v>
       </c>
       <c r="R30" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>200</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="T30" s="11">
+        <f t="shared" ref="T30:U30" si="41">+SUM(T31:T38)</f>
+        <v>200</v>
+      </c>
+      <c r="U30" s="11">
+        <f t="shared" si="41"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
       <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
@@ -2875,25 +3071,27 @@
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="20" t="str">
-        <f t="shared" ref="K31:K37" si="37">IFERROR(J31/I31-1,"n/a")</f>
+        <f t="shared" ref="K31:K37" si="42">IFERROR(J31/I31-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="L31" s="20" t="str">
-        <f t="shared" ref="L31:L37" si="38">IFERROR(J31/G31-1,"n/a")</f>
+        <f t="shared" ref="L31:L37" si="43">IFERROR(J31/G31-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="25"/>
       <c r="O31" s="20" t="str">
-        <f t="shared" ref="O31:O37" si="39">IFERROR(N31/J31-1,"n/a")</f>
+        <f t="shared" ref="O31:O37" si="44">IFERROR(N31/J31-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
-    </row>
-    <row r="32" spans="2:19">
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+    </row>
+    <row r="32" spans="2:21">
       <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
@@ -2908,25 +3106,27 @@
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="20" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
       <c r="L32" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>n/a</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="25"/>
       <c r="O32" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>n/a</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
-    </row>
-    <row r="33" spans="2:19">
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="12" t="s">
         <v>32</v>
       </c>
@@ -2943,11 +3143,11 @@
         <v>200</v>
       </c>
       <c r="K33" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L33" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>n/a</v>
       </c>
       <c r="M33" s="8"/>
@@ -2955,15 +3155,17 @@
         <v>200</v>
       </c>
       <c r="O33" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
-    </row>
-    <row r="34" spans="2:19">
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
@@ -2976,17 +3178,17 @@
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="20" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
       <c r="L34" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>n/a</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="25"/>
       <c r="O34" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>n/a</v>
       </c>
       <c r="P34" s="8"/>
@@ -2995,8 +3197,10 @@
         <v>200</v>
       </c>
       <c r="S34" s="25"/>
-    </row>
-    <row r="35" spans="2:19">
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
@@ -3009,17 +3213,17 @@
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="20" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
       <c r="L35" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>n/a</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="25"/>
       <c r="O35" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>n/a</v>
       </c>
       <c r="P35" s="8"/>
@@ -3028,8 +3232,14 @@
       <c r="S35" s="25">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="2:19">
+      <c r="T35" s="25">
+        <v>200</v>
+      </c>
+      <c r="U35" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
@@ -3044,25 +3254,27 @@
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="20" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
       <c r="L36" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>n/a</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="25"/>
       <c r="O36" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>n/a</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="12" t="s">
         <v>36</v>
       </c>
@@ -3075,25 +3287,27 @@
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="20" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
       <c r="L37" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>n/a</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="25"/>
       <c r="O37" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>n/a</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
-    </row>
-    <row r="38" spans="2:19">
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+    </row>
+    <row r="38" spans="2:21">
       <c r="C38" s="8"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -3111,8 +3325,10 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-    </row>
-    <row r="39" spans="2:19">
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
@@ -3122,32 +3338,32 @@
         <v>300</v>
       </c>
       <c r="E39" s="15">
-        <f t="shared" ref="E39:G39" si="40">+E5+E12+E18+E24+E30</f>
+        <f t="shared" ref="E39:G39" si="45">+E5+E12+E18+E24+E30</f>
         <v>900</v>
       </c>
       <c r="F39" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>403</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>203</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:J39" si="41">+I5+I12+I18+I24+I30</f>
+        <f t="shared" ref="I39:J39" si="46">+I5+I12+I18+I24+I30</f>
         <v>400</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>350</v>
       </c>
       <c r="K39" s="22">
-        <f t="shared" ref="K39" si="42">IFERROR(J39/I39-1,"n/a")</f>
+        <f t="shared" ref="K39" si="47">IFERROR(J39/I39-1,"n/a")</f>
         <v>-0.125</v>
       </c>
       <c r="L39" s="22">
-        <f t="shared" ref="L39" si="43">IFERROR(J39/G39-1,"n/a")</f>
+        <f t="shared" ref="L39" si="48">IFERROR(J39/G39-1,"n/a")</f>
         <v>0.72413793103448265</v>
       </c>
       <c r="M39" s="8"/>
@@ -3161,31 +3377,39 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="15">
-        <f t="shared" ref="Q39:S39" si="44">+Q5+Q12+Q18+Q24+Q30</f>
+        <f t="shared" ref="Q39:S39" si="49">+Q5+Q12+Q18+Q24+Q30</f>
         <v>200</v>
       </c>
       <c r="R39" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>400</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="2:19">
+      <c r="T39" s="15">
+        <f t="shared" ref="T39:U39" si="50">+T5+T12+T18+T24+T30</f>
+        <v>400</v>
+      </c>
+      <c r="U39" s="15">
+        <f t="shared" si="50"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
       <c r="C40" s="8"/>
       <c r="H40" s="8"/>
       <c r="M40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:21">
       <c r="C41" s="8"/>
       <c r="H41" s="8"/>
       <c r="M41" s="8"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:21">
       <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
@@ -3210,11 +3434,11 @@
         <v>15</v>
       </c>
       <c r="K42" s="20">
-        <f t="shared" ref="K42:K43" si="45">IFERROR(J42/I42-1,"n/a")</f>
+        <f t="shared" ref="K42:K43" si="51">IFERROR(J42/I42-1,"n/a")</f>
         <v>0</v>
       </c>
       <c r="L42" s="20">
-        <f t="shared" ref="L42:L43" si="46">IFERROR(J42/G42-1,"n/a")</f>
+        <f t="shared" ref="L42:L43" si="52">IFERROR(J42/G42-1,"n/a")</f>
         <v>0.5</v>
       </c>
       <c r="M42" s="8"/>
@@ -3222,7 +3446,7 @@
         <v>18</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" ref="O42:O43" si="47">IFERROR(N42/J42-1,"n/a")</f>
+        <f t="shared" ref="O42:O43" si="53">IFERROR(N42/J42-1,"n/a")</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="P42" s="8"/>
@@ -3235,8 +3459,14 @@
       <c r="S42" s="26">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="2:19">
+      <c r="T42" s="26">
+        <v>15</v>
+      </c>
+      <c r="U42" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
       <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
@@ -3246,32 +3476,32 @@
         <v>15</v>
       </c>
       <c r="E43" s="16">
-        <f t="shared" ref="E43:G43" si="48">+E39/E42</f>
+        <f t="shared" ref="E43:G43" si="54">+E39/E42</f>
         <v>60</v>
       </c>
       <c r="F43" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>16.12</v>
       </c>
       <c r="G43" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>20.3</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="16">
-        <f t="shared" ref="I43:J43" si="49">+I39/I42</f>
+        <f t="shared" ref="I43:J43" si="55">+I39/I42</f>
         <v>26.666666666666668</v>
       </c>
       <c r="J43" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>23.333333333333332</v>
       </c>
       <c r="K43" s="20">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>-0.12500000000000011</v>
       </c>
       <c r="L43" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.14942528735632177</v>
       </c>
       <c r="M43" s="17"/>
@@ -3280,30 +3510,38 @@
         <v>44.444444444444443</v>
       </c>
       <c r="O43" s="20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.90476190476190488</v>
       </c>
       <c r="P43" s="17"/>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:S43" si="50">+Q39/Q42</f>
+        <f t="shared" ref="Q43:S43" si="56">+Q39/Q42</f>
         <v>13.333333333333334</v>
       </c>
       <c r="R43" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>23.529411764705884</v>
       </c>
       <c r="S43" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>26.666666666666668</v>
       </c>
-    </row>
-    <row r="44" spans="2:19">
+      <c r="T43" s="16">
+        <f t="shared" ref="T43:U43" si="57">+T39/T42</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="U43" s="16">
+        <f t="shared" si="57"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
       <c r="C44" s="8"/>
       <c r="H44" s="8"/>
       <c r="M44" s="8"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:21">
       <c r="B45" s="1" t="s">
         <v>40</v>
       </c>
@@ -3328,11 +3566,11 @@
         <v>5</v>
       </c>
       <c r="K45" s="20">
-        <f t="shared" ref="K45" si="51">IFERROR(J45/I45-1,"n/a")</f>
+        <f t="shared" ref="K45" si="58">IFERROR(J45/I45-1,"n/a")</f>
         <v>0</v>
       </c>
       <c r="L45" s="20">
-        <f t="shared" ref="L45" si="52">IFERROR(J45/G45-1,"n/a")</f>
+        <f t="shared" ref="L45" si="59">IFERROR(J45/G45-1,"n/a")</f>
         <v>0.25</v>
       </c>
       <c r="M45" s="8"/>
@@ -3340,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="O45" s="20">
-        <f t="shared" ref="O45" si="53">IFERROR(N45/J45-1,"n/a")</f>
+        <f t="shared" ref="O45" si="60">IFERROR(N45/J45-1,"n/a")</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="P45" s="8"/>
@@ -3353,20 +3591,26 @@
       <c r="S45" s="26">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:19">
+      <c r="T45" s="26">
+        <v>9</v>
+      </c>
+      <c r="U45" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
       <c r="C46" s="8"/>
       <c r="H46" s="8"/>
       <c r="M46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:21">
       <c r="C47" s="8"/>
       <c r="H47" s="8"/>
       <c r="M47" s="8"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:21">
       <c r="C48" s="8"/>
       <c r="H48" s="8"/>
       <c r="M48" s="8"/>
